--- a/amb_v_varlowpH_juvis/data/Shell_length_data.xlsx
+++ b/amb_v_varlowpH_juvis/data/Shell_length_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -273,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -310,8 +310,11 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -4785,3516 +4788,4044 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" s="7"/>
-      <c r="H122" s="12"/>
+      <c r="A122" s="6">
+        <v>2.0191003E7</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" s="8">
+        <v>0.54864</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" s="11">
+        <v>0.1345</v>
+      </c>
     </row>
     <row r="123">
-      <c r="B123" s="7"/>
-      <c r="H123" s="12"/>
+      <c r="A123" s="6">
+        <v>2.0191003E7</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="8">
+        <v>0.31242</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="11">
+        <v>0.0246</v>
+      </c>
     </row>
     <row r="124">
-      <c r="B124" s="7"/>
-      <c r="H124" s="12"/>
+      <c r="A124" s="6">
+        <v>2.0191003E7</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" s="8">
+        <v>0.42926</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H124" s="11">
+        <v>0.0329</v>
+      </c>
     </row>
     <row r="125">
-      <c r="B125" s="7"/>
-      <c r="H125" s="12"/>
+      <c r="A125" s="6">
+        <v>2.0191003E7</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" s="8">
+        <v>0.40386</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H125" s="11">
+        <v>0.0585</v>
+      </c>
     </row>
     <row r="126">
-      <c r="B126" s="7"/>
-      <c r="H126" s="12"/>
+      <c r="A126" s="6">
+        <v>2.0191003E7</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" s="8">
+        <v>0.28194</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H126" s="11">
+        <v>0.0345</v>
+      </c>
     </row>
     <row r="127">
-      <c r="B127" s="7"/>
-      <c r="H127" s="12"/>
+      <c r="A127" s="6">
+        <v>2.0191003E7</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="128">
-      <c r="B128" s="7"/>
-      <c r="H128" s="12"/>
+      <c r="A128" s="6">
+        <v>2.0191003E7</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="129">
-      <c r="B129" s="7"/>
-      <c r="H129" s="12"/>
+      <c r="A129" s="6">
+        <v>2.0191003E7</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="8">
+        <v>0.36068</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H129" s="11">
+        <v>0.059</v>
+      </c>
     </row>
     <row r="130">
-      <c r="B130" s="7"/>
-      <c r="H130" s="12"/>
+      <c r="A130" s="6">
+        <v>2.0191003E7</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" s="8">
+        <v>0.49022</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H130" s="11">
+        <v>0.1078</v>
+      </c>
     </row>
     <row r="131">
-      <c r="B131" s="7"/>
-      <c r="H131" s="12"/>
+      <c r="A131" s="6">
+        <v>2.0191003E7</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="8">
+        <v>0.42418</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H131" s="11">
+        <v>0.1064</v>
+      </c>
     </row>
     <row r="132">
-      <c r="B132" s="7"/>
-      <c r="H132" s="12"/>
+      <c r="A132" s="6">
+        <v>2.0191003E7</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" s="8">
+        <v>0.45212</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H132" s="11">
+        <v>0.0455</v>
+      </c>
     </row>
     <row r="133">
-      <c r="B133" s="7"/>
-      <c r="H133" s="12"/>
+      <c r="A133" s="6">
+        <v>2.0191003E7</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" s="8">
+        <v>0.42418</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H133" s="11">
+        <v>0.0439</v>
+      </c>
     </row>
     <row r="134">
-      <c r="B134" s="7"/>
-      <c r="H134" s="12"/>
+      <c r="A134" s="6">
+        <v>2.0191003E7</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" s="8">
+        <v>0.37846</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H134" s="11">
+        <v>0.417</v>
+      </c>
     </row>
     <row r="135">
-      <c r="B135" s="7"/>
-      <c r="H135" s="12"/>
+      <c r="A135" s="6">
+        <v>2.0191003E7</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" s="8">
+        <v>0.47498</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H135" s="11">
+        <v>0.096</v>
+      </c>
     </row>
     <row r="136">
-      <c r="B136" s="7"/>
-      <c r="H136" s="12"/>
+      <c r="A136" s="6">
+        <v>2.0191003E7</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="8">
+        <v>0.51054</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H136" s="11">
+        <v>0.0868</v>
+      </c>
     </row>
     <row r="137">
-      <c r="B137" s="7"/>
-      <c r="H137" s="12"/>
+      <c r="A137" s="6">
+        <v>2.0191003E7</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" s="8">
+        <v>0.45212</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H137" s="11">
+        <v>0.055</v>
+      </c>
     </row>
     <row r="138">
-      <c r="B138" s="7"/>
-      <c r="H138" s="12"/>
+      <c r="A138" s="6">
+        <v>2.0191003E7</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" s="8">
+        <v>0.4191</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H138" s="11">
+        <v>0.0529</v>
+      </c>
     </row>
     <row r="139">
-      <c r="B139" s="7"/>
-      <c r="H139" s="12"/>
+      <c r="A139" s="6">
+        <v>2.0191003E7</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="140">
-      <c r="B140" s="7"/>
-      <c r="H140" s="12"/>
+      <c r="A140" s="6">
+        <v>2.0191003E7</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F140" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="141">
-      <c r="B141" s="7"/>
-      <c r="H141" s="12"/>
+      <c r="A141" s="6">
+        <v>2.0191003E7</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141" s="8">
+        <v>0.508</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H141" s="11">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="142">
-      <c r="B142" s="7"/>
-      <c r="H142" s="12"/>
+      <c r="A142" s="6">
+        <v>2.0191003E7</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" s="8">
+        <v>0.51816</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H142" s="11">
+        <v>0.1039</v>
+      </c>
     </row>
     <row r="143">
-      <c r="B143" s="7"/>
-      <c r="H143" s="12"/>
+      <c r="A143" s="6">
+        <v>2.0191003E7</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" s="8">
+        <v>0.51562</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H143" s="11">
+        <v>0.0666</v>
+      </c>
     </row>
     <row r="144">
-      <c r="B144" s="7"/>
-      <c r="H144" s="12"/>
+      <c r="A144" s="6">
+        <v>2.0191003E7</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" s="8">
+        <v>0.48514</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H144" s="11">
+        <v>0.0827</v>
+      </c>
     </row>
     <row r="145">
-      <c r="B145" s="7"/>
-      <c r="H145" s="12"/>
+      <c r="A145" s="6">
+        <v>2.0191003E7</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" s="8">
+        <v>0.4191</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H145" s="11">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="146">
       <c r="B146" s="13"/>
-      <c r="H146" s="12"/>
+      <c r="H146" s="14"/>
     </row>
     <row r="147">
       <c r="B147" s="13"/>
-      <c r="H147" s="12"/>
+      <c r="H147" s="14"/>
     </row>
     <row r="148">
       <c r="B148" s="13"/>
-      <c r="H148" s="12"/>
+      <c r="H148" s="14"/>
     </row>
     <row r="149">
       <c r="B149" s="13"/>
-      <c r="H149" s="12"/>
+      <c r="H149" s="14"/>
     </row>
     <row r="150">
       <c r="B150" s="13"/>
-      <c r="H150" s="12"/>
+      <c r="H150" s="14"/>
     </row>
     <row r="151">
       <c r="B151" s="13"/>
-      <c r="H151" s="12"/>
+      <c r="H151" s="14"/>
     </row>
     <row r="152">
       <c r="B152" s="13"/>
-      <c r="H152" s="12"/>
+      <c r="H152" s="14"/>
     </row>
     <row r="153">
       <c r="B153" s="13"/>
-      <c r="H153" s="12"/>
+      <c r="H153" s="14"/>
     </row>
     <row r="154">
       <c r="B154" s="13"/>
-      <c r="H154" s="12"/>
+      <c r="H154" s="14"/>
     </row>
     <row r="155">
       <c r="B155" s="13"/>
-      <c r="H155" s="12"/>
+      <c r="H155" s="14"/>
     </row>
     <row r="156">
       <c r="B156" s="13"/>
-      <c r="H156" s="12"/>
+      <c r="H156" s="14"/>
     </row>
     <row r="157">
       <c r="B157" s="13"/>
-      <c r="H157" s="12"/>
+      <c r="H157" s="14"/>
     </row>
     <row r="158">
       <c r="B158" s="13"/>
-      <c r="H158" s="12"/>
+      <c r="H158" s="14"/>
     </row>
     <row r="159">
       <c r="B159" s="13"/>
-      <c r="H159" s="12"/>
+      <c r="H159" s="14"/>
     </row>
     <row r="160">
       <c r="B160" s="13"/>
-      <c r="H160" s="12"/>
+      <c r="H160" s="14"/>
     </row>
     <row r="161">
       <c r="B161" s="13"/>
-      <c r="H161" s="12"/>
+      <c r="H161" s="14"/>
     </row>
     <row r="162">
       <c r="B162" s="13"/>
-      <c r="H162" s="12"/>
+      <c r="H162" s="14"/>
     </row>
     <row r="163">
       <c r="B163" s="13"/>
-      <c r="H163" s="12"/>
+      <c r="H163" s="14"/>
     </row>
     <row r="164">
       <c r="B164" s="13"/>
-      <c r="H164" s="12"/>
+      <c r="H164" s="14"/>
     </row>
     <row r="165">
       <c r="B165" s="13"/>
-      <c r="H165" s="12"/>
+      <c r="H165" s="14"/>
     </row>
     <row r="166">
       <c r="B166" s="13"/>
-      <c r="H166" s="12"/>
+      <c r="H166" s="14"/>
     </row>
     <row r="167">
       <c r="B167" s="13"/>
-      <c r="H167" s="12"/>
+      <c r="H167" s="14"/>
     </row>
     <row r="168">
       <c r="B168" s="13"/>
-      <c r="H168" s="12"/>
+      <c r="H168" s="14"/>
     </row>
     <row r="169">
       <c r="B169" s="13"/>
-      <c r="H169" s="12"/>
+      <c r="H169" s="14"/>
     </row>
     <row r="170">
       <c r="B170" s="13"/>
-      <c r="H170" s="12"/>
+      <c r="H170" s="14"/>
     </row>
     <row r="171">
       <c r="B171" s="13"/>
-      <c r="H171" s="12"/>
+      <c r="H171" s="14"/>
     </row>
     <row r="172">
       <c r="B172" s="13"/>
-      <c r="H172" s="12"/>
+      <c r="H172" s="14"/>
     </row>
     <row r="173">
       <c r="B173" s="13"/>
-      <c r="H173" s="12"/>
+      <c r="H173" s="14"/>
     </row>
     <row r="174">
       <c r="B174" s="13"/>
-      <c r="H174" s="12"/>
+      <c r="H174" s="14"/>
     </row>
     <row r="175">
       <c r="B175" s="13"/>
-      <c r="H175" s="12"/>
+      <c r="H175" s="14"/>
     </row>
     <row r="176">
       <c r="B176" s="13"/>
-      <c r="H176" s="12"/>
+      <c r="H176" s="14"/>
     </row>
     <row r="177">
       <c r="B177" s="13"/>
-      <c r="H177" s="12"/>
+      <c r="H177" s="14"/>
     </row>
     <row r="178">
       <c r="B178" s="13"/>
-      <c r="H178" s="12"/>
+      <c r="H178" s="14"/>
     </row>
     <row r="179">
       <c r="B179" s="13"/>
-      <c r="H179" s="12"/>
+      <c r="H179" s="14"/>
     </row>
     <row r="180">
       <c r="B180" s="13"/>
-      <c r="H180" s="12"/>
+      <c r="H180" s="14"/>
     </row>
     <row r="181">
       <c r="B181" s="13"/>
-      <c r="H181" s="12"/>
+      <c r="H181" s="14"/>
     </row>
     <row r="182">
       <c r="B182" s="13"/>
-      <c r="H182" s="12"/>
+      <c r="H182" s="14"/>
     </row>
     <row r="183">
       <c r="B183" s="13"/>
-      <c r="H183" s="12"/>
+      <c r="H183" s="14"/>
     </row>
     <row r="184">
       <c r="B184" s="13"/>
-      <c r="H184" s="12"/>
+      <c r="H184" s="14"/>
     </row>
     <row r="185">
       <c r="B185" s="13"/>
-      <c r="H185" s="12"/>
+      <c r="H185" s="14"/>
     </row>
     <row r="186">
       <c r="B186" s="13"/>
-      <c r="H186" s="12"/>
+      <c r="H186" s="14"/>
     </row>
     <row r="187">
       <c r="B187" s="13"/>
-      <c r="H187" s="12"/>
+      <c r="H187" s="14"/>
     </row>
     <row r="188">
       <c r="B188" s="13"/>
-      <c r="H188" s="12"/>
+      <c r="H188" s="14"/>
     </row>
     <row r="189">
       <c r="B189" s="13"/>
-      <c r="H189" s="12"/>
+      <c r="H189" s="14"/>
     </row>
     <row r="190">
       <c r="B190" s="13"/>
-      <c r="H190" s="12"/>
+      <c r="H190" s="14"/>
     </row>
     <row r="191">
       <c r="B191" s="13"/>
-      <c r="H191" s="12"/>
+      <c r="H191" s="14"/>
     </row>
     <row r="192">
       <c r="B192" s="13"/>
-      <c r="H192" s="12"/>
+      <c r="H192" s="14"/>
     </row>
     <row r="193">
       <c r="B193" s="13"/>
-      <c r="H193" s="12"/>
+      <c r="H193" s="14"/>
     </row>
     <row r="194">
       <c r="B194" s="13"/>
-      <c r="H194" s="12"/>
+      <c r="H194" s="14"/>
     </row>
     <row r="195">
       <c r="B195" s="13"/>
-      <c r="H195" s="12"/>
+      <c r="H195" s="14"/>
     </row>
     <row r="196">
       <c r="B196" s="13"/>
-      <c r="H196" s="12"/>
+      <c r="H196" s="14"/>
     </row>
     <row r="197">
       <c r="B197" s="13"/>
-      <c r="H197" s="12"/>
+      <c r="H197" s="14"/>
     </row>
     <row r="198">
       <c r="B198" s="13"/>
-      <c r="H198" s="12"/>
+      <c r="H198" s="14"/>
     </row>
     <row r="199">
       <c r="B199" s="13"/>
-      <c r="H199" s="12"/>
+      <c r="H199" s="14"/>
     </row>
     <row r="200">
       <c r="B200" s="13"/>
-      <c r="H200" s="12"/>
+      <c r="H200" s="14"/>
     </row>
     <row r="201">
       <c r="B201" s="13"/>
-      <c r="H201" s="12"/>
+      <c r="H201" s="14"/>
     </row>
     <row r="202">
       <c r="B202" s="13"/>
-      <c r="H202" s="12"/>
+      <c r="H202" s="14"/>
     </row>
     <row r="203">
       <c r="B203" s="13"/>
-      <c r="H203" s="12"/>
+      <c r="H203" s="14"/>
     </row>
     <row r="204">
       <c r="B204" s="13"/>
-      <c r="H204" s="12"/>
+      <c r="H204" s="14"/>
     </row>
     <row r="205">
       <c r="B205" s="13"/>
-      <c r="H205" s="12"/>
+      <c r="H205" s="14"/>
     </row>
     <row r="206">
       <c r="B206" s="13"/>
-      <c r="H206" s="12"/>
+      <c r="H206" s="14"/>
     </row>
     <row r="207">
       <c r="B207" s="13"/>
-      <c r="H207" s="12"/>
+      <c r="H207" s="14"/>
     </row>
     <row r="208">
       <c r="B208" s="13"/>
-      <c r="H208" s="12"/>
+      <c r="H208" s="14"/>
     </row>
     <row r="209">
       <c r="B209" s="13"/>
-      <c r="H209" s="12"/>
+      <c r="H209" s="14"/>
     </row>
     <row r="210">
       <c r="B210" s="13"/>
-      <c r="H210" s="12"/>
+      <c r="H210" s="14"/>
     </row>
     <row r="211">
       <c r="B211" s="13"/>
-      <c r="H211" s="12"/>
+      <c r="H211" s="14"/>
     </row>
     <row r="212">
       <c r="B212" s="13"/>
-      <c r="H212" s="12"/>
+      <c r="H212" s="14"/>
     </row>
     <row r="213">
       <c r="B213" s="13"/>
-      <c r="H213" s="12"/>
+      <c r="H213" s="14"/>
     </row>
     <row r="214">
       <c r="B214" s="13"/>
-      <c r="H214" s="12"/>
+      <c r="H214" s="14"/>
     </row>
     <row r="215">
       <c r="B215" s="13"/>
-      <c r="H215" s="12"/>
+      <c r="H215" s="14"/>
     </row>
     <row r="216">
       <c r="B216" s="13"/>
-      <c r="H216" s="12"/>
+      <c r="H216" s="14"/>
     </row>
     <row r="217">
       <c r="B217" s="13"/>
-      <c r="H217" s="12"/>
+      <c r="H217" s="14"/>
     </row>
     <row r="218">
       <c r="B218" s="13"/>
-      <c r="H218" s="12"/>
+      <c r="H218" s="14"/>
     </row>
     <row r="219">
       <c r="B219" s="13"/>
-      <c r="H219" s="12"/>
+      <c r="H219" s="14"/>
     </row>
     <row r="220">
       <c r="B220" s="13"/>
-      <c r="H220" s="12"/>
+      <c r="H220" s="14"/>
     </row>
     <row r="221">
       <c r="B221" s="13"/>
-      <c r="H221" s="12"/>
+      <c r="H221" s="14"/>
     </row>
     <row r="222">
       <c r="B222" s="13"/>
-      <c r="H222" s="12"/>
+      <c r="H222" s="14"/>
     </row>
     <row r="223">
       <c r="B223" s="13"/>
-      <c r="H223" s="12"/>
+      <c r="H223" s="14"/>
     </row>
     <row r="224">
       <c r="B224" s="13"/>
-      <c r="H224" s="12"/>
+      <c r="H224" s="14"/>
     </row>
     <row r="225">
       <c r="B225" s="13"/>
-      <c r="H225" s="12"/>
+      <c r="H225" s="14"/>
     </row>
     <row r="226">
       <c r="B226" s="13"/>
-      <c r="H226" s="12"/>
+      <c r="H226" s="14"/>
     </row>
     <row r="227">
       <c r="B227" s="13"/>
-      <c r="H227" s="12"/>
+      <c r="H227" s="14"/>
     </row>
     <row r="228">
       <c r="B228" s="13"/>
-      <c r="H228" s="12"/>
+      <c r="H228" s="14"/>
     </row>
     <row r="229">
       <c r="B229" s="13"/>
-      <c r="H229" s="12"/>
+      <c r="H229" s="14"/>
     </row>
     <row r="230">
       <c r="B230" s="13"/>
-      <c r="H230" s="12"/>
+      <c r="H230" s="14"/>
     </row>
     <row r="231">
       <c r="B231" s="13"/>
-      <c r="H231" s="12"/>
+      <c r="H231" s="14"/>
     </row>
     <row r="232">
       <c r="B232" s="13"/>
-      <c r="H232" s="12"/>
+      <c r="H232" s="14"/>
     </row>
     <row r="233">
       <c r="B233" s="13"/>
-      <c r="H233" s="12"/>
+      <c r="H233" s="14"/>
     </row>
     <row r="234">
       <c r="B234" s="13"/>
-      <c r="H234" s="12"/>
+      <c r="H234" s="14"/>
     </row>
     <row r="235">
       <c r="B235" s="13"/>
-      <c r="H235" s="12"/>
+      <c r="H235" s="14"/>
     </row>
     <row r="236">
       <c r="B236" s="13"/>
-      <c r="H236" s="12"/>
+      <c r="H236" s="14"/>
     </row>
     <row r="237">
       <c r="B237" s="13"/>
-      <c r="H237" s="12"/>
+      <c r="H237" s="14"/>
     </row>
     <row r="238">
       <c r="B238" s="13"/>
-      <c r="H238" s="12"/>
+      <c r="H238" s="14"/>
     </row>
     <row r="239">
       <c r="B239" s="13"/>
-      <c r="H239" s="12"/>
+      <c r="H239" s="14"/>
     </row>
     <row r="240">
       <c r="B240" s="13"/>
-      <c r="H240" s="12"/>
+      <c r="H240" s="14"/>
     </row>
     <row r="241">
       <c r="B241" s="13"/>
-      <c r="H241" s="12"/>
+      <c r="H241" s="14"/>
     </row>
     <row r="242">
       <c r="B242" s="13"/>
-      <c r="H242" s="12"/>
+      <c r="H242" s="14"/>
     </row>
     <row r="243">
       <c r="B243" s="13"/>
-      <c r="H243" s="12"/>
+      <c r="H243" s="14"/>
     </row>
     <row r="244">
       <c r="B244" s="13"/>
-      <c r="H244" s="12"/>
+      <c r="H244" s="14"/>
     </row>
     <row r="245">
       <c r="B245" s="13"/>
-      <c r="H245" s="12"/>
+      <c r="H245" s="14"/>
     </row>
     <row r="246">
       <c r="B246" s="13"/>
-      <c r="H246" s="12"/>
+      <c r="H246" s="14"/>
     </row>
     <row r="247">
       <c r="B247" s="13"/>
-      <c r="H247" s="12"/>
+      <c r="H247" s="14"/>
     </row>
     <row r="248">
       <c r="B248" s="13"/>
-      <c r="H248" s="12"/>
+      <c r="H248" s="14"/>
     </row>
     <row r="249">
       <c r="B249" s="13"/>
-      <c r="H249" s="12"/>
+      <c r="H249" s="14"/>
     </row>
     <row r="250">
       <c r="B250" s="13"/>
-      <c r="H250" s="12"/>
+      <c r="H250" s="14"/>
     </row>
     <row r="251">
       <c r="B251" s="13"/>
-      <c r="H251" s="12"/>
+      <c r="H251" s="14"/>
     </row>
     <row r="252">
       <c r="B252" s="13"/>
-      <c r="H252" s="12"/>
+      <c r="H252" s="14"/>
     </row>
     <row r="253">
       <c r="B253" s="13"/>
-      <c r="H253" s="12"/>
+      <c r="H253" s="14"/>
     </row>
     <row r="254">
       <c r="B254" s="13"/>
-      <c r="H254" s="12"/>
+      <c r="H254" s="14"/>
     </row>
     <row r="255">
       <c r="B255" s="13"/>
-      <c r="H255" s="12"/>
+      <c r="H255" s="14"/>
     </row>
     <row r="256">
       <c r="B256" s="13"/>
-      <c r="H256" s="12"/>
+      <c r="H256" s="14"/>
     </row>
     <row r="257">
       <c r="B257" s="13"/>
-      <c r="H257" s="12"/>
+      <c r="H257" s="14"/>
     </row>
     <row r="258">
       <c r="B258" s="13"/>
-      <c r="H258" s="12"/>
+      <c r="H258" s="14"/>
     </row>
     <row r="259">
       <c r="B259" s="13"/>
-      <c r="H259" s="12"/>
+      <c r="H259" s="14"/>
     </row>
     <row r="260">
       <c r="B260" s="13"/>
-      <c r="H260" s="12"/>
+      <c r="H260" s="14"/>
     </row>
     <row r="261">
       <c r="B261" s="13"/>
-      <c r="H261" s="12"/>
+      <c r="H261" s="14"/>
     </row>
     <row r="262">
       <c r="B262" s="13"/>
-      <c r="H262" s="12"/>
+      <c r="H262" s="14"/>
     </row>
     <row r="263">
       <c r="B263" s="13"/>
-      <c r="H263" s="12"/>
+      <c r="H263" s="14"/>
     </row>
     <row r="264">
       <c r="B264" s="13"/>
-      <c r="H264" s="12"/>
+      <c r="H264" s="14"/>
     </row>
     <row r="265">
       <c r="B265" s="13"/>
-      <c r="H265" s="12"/>
+      <c r="H265" s="14"/>
     </row>
     <row r="266">
       <c r="B266" s="13"/>
-      <c r="H266" s="12"/>
+      <c r="H266" s="14"/>
     </row>
     <row r="267">
       <c r="B267" s="13"/>
-      <c r="H267" s="12"/>
+      <c r="H267" s="14"/>
     </row>
     <row r="268">
       <c r="B268" s="13"/>
-      <c r="H268" s="12"/>
+      <c r="H268" s="14"/>
     </row>
     <row r="269">
       <c r="B269" s="13"/>
-      <c r="H269" s="12"/>
+      <c r="H269" s="14"/>
     </row>
     <row r="270">
       <c r="B270" s="13"/>
-      <c r="H270" s="12"/>
+      <c r="H270" s="14"/>
     </row>
     <row r="271">
       <c r="B271" s="13"/>
-      <c r="H271" s="12"/>
+      <c r="H271" s="14"/>
     </row>
     <row r="272">
       <c r="B272" s="13"/>
-      <c r="H272" s="12"/>
+      <c r="H272" s="14"/>
     </row>
     <row r="273">
       <c r="B273" s="13"/>
-      <c r="H273" s="12"/>
+      <c r="H273" s="14"/>
     </row>
     <row r="274">
       <c r="B274" s="13"/>
-      <c r="H274" s="12"/>
+      <c r="H274" s="14"/>
     </row>
     <row r="275">
       <c r="B275" s="13"/>
-      <c r="H275" s="12"/>
+      <c r="H275" s="14"/>
     </row>
     <row r="276">
       <c r="B276" s="13"/>
-      <c r="H276" s="12"/>
+      <c r="H276" s="14"/>
     </row>
     <row r="277">
       <c r="B277" s="13"/>
-      <c r="H277" s="12"/>
+      <c r="H277" s="14"/>
     </row>
     <row r="278">
       <c r="B278" s="13"/>
-      <c r="H278" s="12"/>
+      <c r="H278" s="14"/>
     </row>
     <row r="279">
       <c r="B279" s="13"/>
-      <c r="H279" s="12"/>
+      <c r="H279" s="14"/>
     </row>
     <row r="280">
       <c r="B280" s="13"/>
-      <c r="H280" s="12"/>
+      <c r="H280" s="14"/>
     </row>
     <row r="281">
       <c r="B281" s="13"/>
-      <c r="H281" s="12"/>
+      <c r="H281" s="14"/>
     </row>
     <row r="282">
       <c r="B282" s="13"/>
-      <c r="H282" s="12"/>
+      <c r="H282" s="14"/>
     </row>
     <row r="283">
       <c r="B283" s="13"/>
-      <c r="H283" s="12"/>
+      <c r="H283" s="14"/>
     </row>
     <row r="284">
       <c r="B284" s="13"/>
-      <c r="H284" s="12"/>
+      <c r="H284" s="14"/>
     </row>
     <row r="285">
       <c r="B285" s="13"/>
-      <c r="H285" s="12"/>
+      <c r="H285" s="14"/>
     </row>
     <row r="286">
       <c r="B286" s="13"/>
-      <c r="H286" s="12"/>
+      <c r="H286" s="14"/>
     </row>
     <row r="287">
       <c r="B287" s="13"/>
-      <c r="H287" s="12"/>
+      <c r="H287" s="14"/>
     </row>
     <row r="288">
       <c r="B288" s="13"/>
-      <c r="H288" s="12"/>
+      <c r="H288" s="14"/>
     </row>
     <row r="289">
       <c r="B289" s="13"/>
-      <c r="H289" s="12"/>
+      <c r="H289" s="14"/>
     </row>
     <row r="290">
       <c r="B290" s="13"/>
-      <c r="H290" s="12"/>
+      <c r="H290" s="14"/>
     </row>
     <row r="291">
       <c r="B291" s="13"/>
-      <c r="H291" s="12"/>
+      <c r="H291" s="14"/>
     </row>
     <row r="292">
       <c r="B292" s="13"/>
-      <c r="H292" s="12"/>
+      <c r="H292" s="14"/>
     </row>
     <row r="293">
       <c r="B293" s="13"/>
-      <c r="H293" s="12"/>
+      <c r="H293" s="14"/>
     </row>
     <row r="294">
       <c r="B294" s="13"/>
-      <c r="H294" s="12"/>
+      <c r="H294" s="14"/>
     </row>
     <row r="295">
       <c r="B295" s="13"/>
-      <c r="H295" s="12"/>
+      <c r="H295" s="14"/>
     </row>
     <row r="296">
       <c r="B296" s="13"/>
-      <c r="H296" s="12"/>
+      <c r="H296" s="14"/>
     </row>
     <row r="297">
       <c r="B297" s="13"/>
-      <c r="H297" s="12"/>
+      <c r="H297" s="14"/>
     </row>
     <row r="298">
       <c r="B298" s="13"/>
-      <c r="H298" s="12"/>
+      <c r="H298" s="14"/>
     </row>
     <row r="299">
       <c r="B299" s="13"/>
-      <c r="H299" s="12"/>
+      <c r="H299" s="14"/>
     </row>
     <row r="300">
       <c r="B300" s="13"/>
-      <c r="H300" s="12"/>
+      <c r="H300" s="14"/>
     </row>
     <row r="301">
       <c r="B301" s="13"/>
-      <c r="H301" s="12"/>
+      <c r="H301" s="14"/>
     </row>
     <row r="302">
       <c r="B302" s="13"/>
-      <c r="H302" s="12"/>
+      <c r="H302" s="14"/>
     </row>
     <row r="303">
       <c r="B303" s="13"/>
-      <c r="H303" s="12"/>
+      <c r="H303" s="14"/>
     </row>
     <row r="304">
       <c r="B304" s="13"/>
-      <c r="H304" s="12"/>
+      <c r="H304" s="14"/>
     </row>
     <row r="305">
       <c r="B305" s="13"/>
-      <c r="H305" s="12"/>
+      <c r="H305" s="14"/>
     </row>
     <row r="306">
       <c r="B306" s="13"/>
-      <c r="H306" s="12"/>
+      <c r="H306" s="14"/>
     </row>
     <row r="307">
       <c r="B307" s="13"/>
-      <c r="H307" s="12"/>
+      <c r="H307" s="14"/>
     </row>
     <row r="308">
       <c r="B308" s="13"/>
-      <c r="H308" s="12"/>
+      <c r="H308" s="14"/>
     </row>
     <row r="309">
       <c r="B309" s="13"/>
-      <c r="H309" s="12"/>
+      <c r="H309" s="14"/>
     </row>
     <row r="310">
       <c r="B310" s="13"/>
-      <c r="H310" s="12"/>
+      <c r="H310" s="14"/>
     </row>
     <row r="311">
       <c r="B311" s="13"/>
-      <c r="H311" s="12"/>
+      <c r="H311" s="14"/>
     </row>
     <row r="312">
       <c r="B312" s="13"/>
-      <c r="H312" s="12"/>
+      <c r="H312" s="14"/>
     </row>
     <row r="313">
       <c r="B313" s="13"/>
-      <c r="H313" s="12"/>
+      <c r="H313" s="14"/>
     </row>
     <row r="314">
       <c r="B314" s="13"/>
-      <c r="H314" s="12"/>
+      <c r="H314" s="14"/>
     </row>
     <row r="315">
       <c r="B315" s="13"/>
-      <c r="H315" s="12"/>
+      <c r="H315" s="14"/>
     </row>
     <row r="316">
       <c r="B316" s="13"/>
-      <c r="H316" s="12"/>
+      <c r="H316" s="14"/>
     </row>
     <row r="317">
       <c r="B317" s="13"/>
-      <c r="H317" s="12"/>
+      <c r="H317" s="14"/>
     </row>
     <row r="318">
       <c r="B318" s="13"/>
-      <c r="H318" s="12"/>
+      <c r="H318" s="14"/>
     </row>
     <row r="319">
       <c r="B319" s="13"/>
-      <c r="H319" s="12"/>
+      <c r="H319" s="14"/>
     </row>
     <row r="320">
       <c r="B320" s="13"/>
-      <c r="H320" s="12"/>
+      <c r="H320" s="14"/>
     </row>
     <row r="321">
       <c r="B321" s="13"/>
-      <c r="H321" s="12"/>
+      <c r="H321" s="14"/>
     </row>
     <row r="322">
       <c r="B322" s="13"/>
-      <c r="H322" s="12"/>
+      <c r="H322" s="14"/>
     </row>
     <row r="323">
       <c r="B323" s="13"/>
-      <c r="H323" s="12"/>
+      <c r="H323" s="14"/>
     </row>
     <row r="324">
       <c r="B324" s="13"/>
-      <c r="H324" s="12"/>
+      <c r="H324" s="14"/>
     </row>
     <row r="325">
       <c r="B325" s="13"/>
-      <c r="H325" s="12"/>
+      <c r="H325" s="14"/>
     </row>
     <row r="326">
       <c r="B326" s="13"/>
-      <c r="H326" s="12"/>
+      <c r="H326" s="14"/>
     </row>
     <row r="327">
       <c r="B327" s="13"/>
-      <c r="H327" s="12"/>
+      <c r="H327" s="14"/>
     </row>
     <row r="328">
       <c r="B328" s="13"/>
-      <c r="H328" s="12"/>
+      <c r="H328" s="14"/>
     </row>
     <row r="329">
       <c r="B329" s="13"/>
-      <c r="H329" s="12"/>
+      <c r="H329" s="14"/>
     </row>
     <row r="330">
       <c r="B330" s="13"/>
-      <c r="H330" s="12"/>
+      <c r="H330" s="14"/>
     </row>
     <row r="331">
       <c r="B331" s="13"/>
-      <c r="H331" s="12"/>
+      <c r="H331" s="14"/>
     </row>
     <row r="332">
       <c r="B332" s="13"/>
-      <c r="H332" s="12"/>
+      <c r="H332" s="14"/>
     </row>
     <row r="333">
       <c r="B333" s="13"/>
-      <c r="H333" s="12"/>
+      <c r="H333" s="14"/>
     </row>
     <row r="334">
       <c r="B334" s="13"/>
-      <c r="H334" s="12"/>
+      <c r="H334" s="14"/>
     </row>
     <row r="335">
       <c r="B335" s="13"/>
-      <c r="H335" s="12"/>
+      <c r="H335" s="14"/>
     </row>
     <row r="336">
       <c r="B336" s="13"/>
-      <c r="H336" s="12"/>
+      <c r="H336" s="14"/>
     </row>
     <row r="337">
       <c r="B337" s="13"/>
-      <c r="H337" s="12"/>
+      <c r="H337" s="14"/>
     </row>
     <row r="338">
       <c r="B338" s="13"/>
-      <c r="H338" s="12"/>
+      <c r="H338" s="14"/>
     </row>
     <row r="339">
       <c r="B339" s="13"/>
-      <c r="H339" s="12"/>
+      <c r="H339" s="14"/>
     </row>
     <row r="340">
       <c r="B340" s="13"/>
-      <c r="H340" s="12"/>
+      <c r="H340" s="14"/>
     </row>
     <row r="341">
       <c r="B341" s="13"/>
-      <c r="H341" s="12"/>
+      <c r="H341" s="14"/>
     </row>
     <row r="342">
       <c r="B342" s="13"/>
-      <c r="H342" s="12"/>
+      <c r="H342" s="14"/>
     </row>
     <row r="343">
       <c r="B343" s="13"/>
-      <c r="H343" s="12"/>
+      <c r="H343" s="14"/>
     </row>
     <row r="344">
       <c r="B344" s="13"/>
-      <c r="H344" s="12"/>
+      <c r="H344" s="14"/>
     </row>
     <row r="345">
       <c r="B345" s="13"/>
-      <c r="H345" s="12"/>
+      <c r="H345" s="14"/>
     </row>
     <row r="346">
       <c r="B346" s="13"/>
-      <c r="H346" s="12"/>
+      <c r="H346" s="14"/>
     </row>
     <row r="347">
       <c r="B347" s="13"/>
-      <c r="H347" s="12"/>
+      <c r="H347" s="14"/>
     </row>
     <row r="348">
       <c r="B348" s="13"/>
-      <c r="H348" s="12"/>
+      <c r="H348" s="14"/>
     </row>
     <row r="349">
       <c r="B349" s="13"/>
-      <c r="H349" s="12"/>
+      <c r="H349" s="14"/>
     </row>
     <row r="350">
       <c r="B350" s="13"/>
-      <c r="H350" s="12"/>
+      <c r="H350" s="14"/>
     </row>
     <row r="351">
       <c r="B351" s="13"/>
-      <c r="H351" s="12"/>
+      <c r="H351" s="14"/>
     </row>
     <row r="352">
       <c r="B352" s="13"/>
-      <c r="H352" s="12"/>
+      <c r="H352" s="14"/>
     </row>
     <row r="353">
       <c r="B353" s="13"/>
-      <c r="H353" s="12"/>
+      <c r="H353" s="14"/>
     </row>
     <row r="354">
       <c r="B354" s="13"/>
-      <c r="H354" s="12"/>
+      <c r="H354" s="14"/>
     </row>
     <row r="355">
       <c r="B355" s="13"/>
-      <c r="H355" s="12"/>
+      <c r="H355" s="14"/>
     </row>
     <row r="356">
       <c r="B356" s="13"/>
-      <c r="H356" s="12"/>
+      <c r="H356" s="14"/>
     </row>
     <row r="357">
       <c r="B357" s="13"/>
-      <c r="H357" s="12"/>
+      <c r="H357" s="14"/>
     </row>
     <row r="358">
       <c r="B358" s="13"/>
-      <c r="H358" s="12"/>
+      <c r="H358" s="14"/>
     </row>
     <row r="359">
       <c r="B359" s="13"/>
-      <c r="H359" s="12"/>
+      <c r="H359" s="14"/>
     </row>
     <row r="360">
       <c r="B360" s="13"/>
-      <c r="H360" s="12"/>
+      <c r="H360" s="14"/>
     </row>
     <row r="361">
       <c r="B361" s="13"/>
-      <c r="H361" s="12"/>
+      <c r="H361" s="14"/>
     </row>
     <row r="362">
       <c r="B362" s="13"/>
-      <c r="H362" s="12"/>
+      <c r="H362" s="14"/>
     </row>
     <row r="363">
       <c r="B363" s="13"/>
-      <c r="H363" s="12"/>
+      <c r="H363" s="14"/>
     </row>
     <row r="364">
       <c r="B364" s="13"/>
-      <c r="H364" s="12"/>
+      <c r="H364" s="14"/>
     </row>
     <row r="365">
       <c r="B365" s="13"/>
-      <c r="H365" s="12"/>
+      <c r="H365" s="14"/>
     </row>
     <row r="366">
       <c r="B366" s="13"/>
-      <c r="H366" s="12"/>
+      <c r="H366" s="14"/>
     </row>
     <row r="367">
       <c r="B367" s="13"/>
-      <c r="H367" s="12"/>
+      <c r="H367" s="14"/>
     </row>
     <row r="368">
       <c r="B368" s="13"/>
-      <c r="H368" s="12"/>
+      <c r="H368" s="14"/>
     </row>
     <row r="369">
       <c r="B369" s="13"/>
-      <c r="H369" s="12"/>
+      <c r="H369" s="14"/>
     </row>
     <row r="370">
       <c r="B370" s="13"/>
-      <c r="H370" s="12"/>
+      <c r="H370" s="14"/>
     </row>
     <row r="371">
       <c r="B371" s="13"/>
-      <c r="H371" s="12"/>
+      <c r="H371" s="14"/>
     </row>
     <row r="372">
       <c r="B372" s="13"/>
-      <c r="H372" s="12"/>
+      <c r="H372" s="14"/>
     </row>
     <row r="373">
       <c r="B373" s="13"/>
-      <c r="H373" s="12"/>
+      <c r="H373" s="14"/>
     </row>
     <row r="374">
       <c r="B374" s="13"/>
-      <c r="H374" s="12"/>
+      <c r="H374" s="14"/>
     </row>
     <row r="375">
       <c r="B375" s="13"/>
-      <c r="H375" s="12"/>
+      <c r="H375" s="14"/>
     </row>
     <row r="376">
       <c r="B376" s="13"/>
-      <c r="H376" s="12"/>
+      <c r="H376" s="14"/>
     </row>
     <row r="377">
       <c r="B377" s="13"/>
-      <c r="H377" s="12"/>
+      <c r="H377" s="14"/>
     </row>
     <row r="378">
       <c r="B378" s="13"/>
-      <c r="H378" s="12"/>
+      <c r="H378" s="14"/>
     </row>
     <row r="379">
       <c r="B379" s="13"/>
-      <c r="H379" s="12"/>
+      <c r="H379" s="14"/>
     </row>
     <row r="380">
       <c r="B380" s="13"/>
-      <c r="H380" s="12"/>
+      <c r="H380" s="14"/>
     </row>
     <row r="381">
       <c r="B381" s="13"/>
-      <c r="H381" s="12"/>
+      <c r="H381" s="14"/>
     </row>
     <row r="382">
       <c r="B382" s="13"/>
-      <c r="H382" s="12"/>
+      <c r="H382" s="14"/>
     </row>
     <row r="383">
       <c r="B383" s="13"/>
-      <c r="H383" s="12"/>
+      <c r="H383" s="14"/>
     </row>
     <row r="384">
       <c r="B384" s="13"/>
-      <c r="H384" s="12"/>
+      <c r="H384" s="14"/>
     </row>
     <row r="385">
       <c r="B385" s="13"/>
-      <c r="H385" s="12"/>
+      <c r="H385" s="14"/>
     </row>
     <row r="386">
       <c r="B386" s="13"/>
-      <c r="H386" s="12"/>
+      <c r="H386" s="14"/>
     </row>
     <row r="387">
       <c r="B387" s="13"/>
-      <c r="H387" s="12"/>
+      <c r="H387" s="14"/>
     </row>
     <row r="388">
       <c r="B388" s="13"/>
-      <c r="H388" s="12"/>
+      <c r="H388" s="14"/>
     </row>
     <row r="389">
       <c r="B389" s="13"/>
-      <c r="H389" s="12"/>
+      <c r="H389" s="14"/>
     </row>
     <row r="390">
       <c r="B390" s="13"/>
-      <c r="H390" s="12"/>
+      <c r="H390" s="14"/>
     </row>
     <row r="391">
       <c r="B391" s="13"/>
-      <c r="H391" s="12"/>
+      <c r="H391" s="14"/>
     </row>
     <row r="392">
       <c r="B392" s="13"/>
-      <c r="H392" s="12"/>
+      <c r="H392" s="14"/>
     </row>
     <row r="393">
       <c r="B393" s="13"/>
-      <c r="H393" s="12"/>
+      <c r="H393" s="14"/>
     </row>
     <row r="394">
       <c r="B394" s="13"/>
-      <c r="H394" s="12"/>
+      <c r="H394" s="14"/>
     </row>
     <row r="395">
       <c r="B395" s="13"/>
-      <c r="H395" s="12"/>
+      <c r="H395" s="14"/>
     </row>
     <row r="396">
       <c r="B396" s="13"/>
-      <c r="H396" s="12"/>
+      <c r="H396" s="14"/>
     </row>
     <row r="397">
       <c r="B397" s="13"/>
-      <c r="H397" s="12"/>
+      <c r="H397" s="14"/>
     </row>
     <row r="398">
       <c r="B398" s="13"/>
-      <c r="H398" s="12"/>
+      <c r="H398" s="14"/>
     </row>
     <row r="399">
       <c r="B399" s="13"/>
-      <c r="H399" s="12"/>
+      <c r="H399" s="14"/>
     </row>
     <row r="400">
       <c r="B400" s="13"/>
-      <c r="H400" s="12"/>
+      <c r="H400" s="14"/>
     </row>
     <row r="401">
       <c r="B401" s="13"/>
-      <c r="H401" s="12"/>
+      <c r="H401" s="14"/>
     </row>
     <row r="402">
       <c r="B402" s="13"/>
-      <c r="H402" s="12"/>
+      <c r="H402" s="14"/>
     </row>
     <row r="403">
       <c r="B403" s="13"/>
-      <c r="H403" s="12"/>
+      <c r="H403" s="14"/>
     </row>
     <row r="404">
       <c r="B404" s="13"/>
-      <c r="H404" s="12"/>
+      <c r="H404" s="14"/>
     </row>
     <row r="405">
       <c r="B405" s="13"/>
-      <c r="H405" s="12"/>
+      <c r="H405" s="14"/>
     </row>
     <row r="406">
       <c r="B406" s="13"/>
-      <c r="H406" s="12"/>
+      <c r="H406" s="14"/>
     </row>
     <row r="407">
       <c r="B407" s="13"/>
-      <c r="H407" s="12"/>
+      <c r="H407" s="14"/>
     </row>
     <row r="408">
       <c r="B408" s="13"/>
-      <c r="H408" s="12"/>
+      <c r="H408" s="14"/>
     </row>
     <row r="409">
       <c r="B409" s="13"/>
-      <c r="H409" s="12"/>
+      <c r="H409" s="14"/>
     </row>
     <row r="410">
       <c r="B410" s="13"/>
-      <c r="H410" s="12"/>
+      <c r="H410" s="14"/>
     </row>
     <row r="411">
       <c r="B411" s="13"/>
-      <c r="H411" s="12"/>
+      <c r="H411" s="14"/>
     </row>
     <row r="412">
       <c r="B412" s="13"/>
-      <c r="H412" s="12"/>
+      <c r="H412" s="14"/>
     </row>
     <row r="413">
       <c r="B413" s="13"/>
-      <c r="H413" s="12"/>
+      <c r="H413" s="14"/>
     </row>
     <row r="414">
       <c r="B414" s="13"/>
-      <c r="H414" s="12"/>
+      <c r="H414" s="14"/>
     </row>
     <row r="415">
       <c r="B415" s="13"/>
-      <c r="H415" s="12"/>
+      <c r="H415" s="14"/>
     </row>
     <row r="416">
       <c r="B416" s="13"/>
-      <c r="H416" s="12"/>
+      <c r="H416" s="14"/>
     </row>
     <row r="417">
       <c r="B417" s="13"/>
-      <c r="H417" s="12"/>
+      <c r="H417" s="14"/>
     </row>
     <row r="418">
       <c r="B418" s="13"/>
-      <c r="H418" s="12"/>
+      <c r="H418" s="14"/>
     </row>
     <row r="419">
       <c r="B419" s="13"/>
-      <c r="H419" s="12"/>
+      <c r="H419" s="14"/>
     </row>
     <row r="420">
       <c r="B420" s="13"/>
-      <c r="H420" s="12"/>
+      <c r="H420" s="14"/>
     </row>
     <row r="421">
       <c r="B421" s="13"/>
-      <c r="H421" s="12"/>
+      <c r="H421" s="14"/>
     </row>
     <row r="422">
       <c r="B422" s="13"/>
-      <c r="H422" s="12"/>
+      <c r="H422" s="14"/>
     </row>
     <row r="423">
       <c r="B423" s="13"/>
-      <c r="H423" s="12"/>
+      <c r="H423" s="14"/>
     </row>
     <row r="424">
       <c r="B424" s="13"/>
-      <c r="H424" s="12"/>
+      <c r="H424" s="14"/>
     </row>
     <row r="425">
       <c r="B425" s="13"/>
-      <c r="H425" s="12"/>
+      <c r="H425" s="14"/>
     </row>
     <row r="426">
       <c r="B426" s="13"/>
-      <c r="H426" s="12"/>
+      <c r="H426" s="14"/>
     </row>
     <row r="427">
       <c r="B427" s="13"/>
-      <c r="H427" s="12"/>
+      <c r="H427" s="14"/>
     </row>
     <row r="428">
       <c r="B428" s="13"/>
-      <c r="H428" s="12"/>
+      <c r="H428" s="14"/>
     </row>
     <row r="429">
       <c r="B429" s="13"/>
-      <c r="H429" s="12"/>
+      <c r="H429" s="14"/>
     </row>
     <row r="430">
       <c r="B430" s="13"/>
-      <c r="H430" s="12"/>
+      <c r="H430" s="14"/>
     </row>
     <row r="431">
       <c r="B431" s="13"/>
-      <c r="H431" s="12"/>
+      <c r="H431" s="14"/>
     </row>
     <row r="432">
       <c r="B432" s="13"/>
-      <c r="H432" s="12"/>
+      <c r="H432" s="14"/>
     </row>
     <row r="433">
       <c r="B433" s="13"/>
-      <c r="H433" s="12"/>
+      <c r="H433" s="14"/>
     </row>
     <row r="434">
       <c r="B434" s="13"/>
-      <c r="H434" s="12"/>
+      <c r="H434" s="14"/>
     </row>
     <row r="435">
       <c r="B435" s="13"/>
-      <c r="H435" s="12"/>
+      <c r="H435" s="14"/>
     </row>
     <row r="436">
       <c r="B436" s="13"/>
-      <c r="H436" s="12"/>
+      <c r="H436" s="14"/>
     </row>
     <row r="437">
       <c r="B437" s="13"/>
-      <c r="H437" s="12"/>
+      <c r="H437" s="14"/>
     </row>
     <row r="438">
       <c r="B438" s="13"/>
-      <c r="H438" s="12"/>
+      <c r="H438" s="14"/>
     </row>
     <row r="439">
       <c r="B439" s="13"/>
-      <c r="H439" s="12"/>
+      <c r="H439" s="14"/>
     </row>
     <row r="440">
       <c r="B440" s="13"/>
-      <c r="H440" s="12"/>
+      <c r="H440" s="14"/>
     </row>
     <row r="441">
       <c r="B441" s="13"/>
-      <c r="H441" s="12"/>
+      <c r="H441" s="14"/>
     </row>
     <row r="442">
       <c r="B442" s="13"/>
-      <c r="H442" s="12"/>
+      <c r="H442" s="14"/>
     </row>
     <row r="443">
       <c r="B443" s="13"/>
-      <c r="H443" s="12"/>
+      <c r="H443" s="14"/>
     </row>
     <row r="444">
       <c r="B444" s="13"/>
-      <c r="H444" s="12"/>
+      <c r="H444" s="14"/>
     </row>
     <row r="445">
       <c r="B445" s="13"/>
-      <c r="H445" s="12"/>
+      <c r="H445" s="14"/>
     </row>
     <row r="446">
       <c r="B446" s="13"/>
-      <c r="H446" s="12"/>
+      <c r="H446" s="14"/>
     </row>
     <row r="447">
       <c r="B447" s="13"/>
-      <c r="H447" s="12"/>
+      <c r="H447" s="14"/>
     </row>
     <row r="448">
       <c r="B448" s="13"/>
-      <c r="H448" s="12"/>
+      <c r="H448" s="14"/>
     </row>
     <row r="449">
       <c r="B449" s="13"/>
-      <c r="H449" s="12"/>
+      <c r="H449" s="14"/>
     </row>
     <row r="450">
       <c r="B450" s="13"/>
-      <c r="H450" s="12"/>
+      <c r="H450" s="14"/>
     </row>
     <row r="451">
       <c r="B451" s="13"/>
-      <c r="H451" s="12"/>
+      <c r="H451" s="14"/>
     </row>
     <row r="452">
       <c r="B452" s="13"/>
-      <c r="H452" s="12"/>
+      <c r="H452" s="14"/>
     </row>
     <row r="453">
       <c r="B453" s="13"/>
-      <c r="H453" s="12"/>
+      <c r="H453" s="14"/>
     </row>
     <row r="454">
       <c r="B454" s="13"/>
-      <c r="H454" s="12"/>
+      <c r="H454" s="14"/>
     </row>
     <row r="455">
       <c r="B455" s="13"/>
-      <c r="H455" s="12"/>
+      <c r="H455" s="14"/>
     </row>
     <row r="456">
       <c r="B456" s="13"/>
-      <c r="H456" s="12"/>
+      <c r="H456" s="14"/>
     </row>
     <row r="457">
       <c r="B457" s="13"/>
-      <c r="H457" s="12"/>
+      <c r="H457" s="14"/>
     </row>
     <row r="458">
       <c r="B458" s="13"/>
-      <c r="H458" s="12"/>
+      <c r="H458" s="14"/>
     </row>
     <row r="459">
       <c r="B459" s="13"/>
-      <c r="H459" s="12"/>
+      <c r="H459" s="14"/>
     </row>
     <row r="460">
       <c r="B460" s="13"/>
-      <c r="H460" s="12"/>
+      <c r="H460" s="14"/>
     </row>
     <row r="461">
       <c r="B461" s="13"/>
-      <c r="H461" s="12"/>
+      <c r="H461" s="14"/>
     </row>
     <row r="462">
       <c r="B462" s="13"/>
-      <c r="H462" s="12"/>
+      <c r="H462" s="14"/>
     </row>
     <row r="463">
       <c r="B463" s="13"/>
-      <c r="H463" s="12"/>
+      <c r="H463" s="14"/>
     </row>
     <row r="464">
       <c r="B464" s="13"/>
-      <c r="H464" s="12"/>
+      <c r="H464" s="14"/>
     </row>
     <row r="465">
       <c r="B465" s="13"/>
-      <c r="H465" s="12"/>
+      <c r="H465" s="14"/>
     </row>
     <row r="466">
       <c r="B466" s="13"/>
-      <c r="H466" s="12"/>
+      <c r="H466" s="14"/>
     </row>
     <row r="467">
       <c r="B467" s="13"/>
-      <c r="H467" s="12"/>
+      <c r="H467" s="14"/>
     </row>
     <row r="468">
       <c r="B468" s="13"/>
-      <c r="H468" s="12"/>
+      <c r="H468" s="14"/>
     </row>
     <row r="469">
       <c r="B469" s="13"/>
-      <c r="H469" s="12"/>
+      <c r="H469" s="14"/>
     </row>
     <row r="470">
       <c r="B470" s="13"/>
-      <c r="H470" s="12"/>
+      <c r="H470" s="14"/>
     </row>
     <row r="471">
       <c r="B471" s="13"/>
-      <c r="H471" s="12"/>
+      <c r="H471" s="14"/>
     </row>
     <row r="472">
       <c r="B472" s="13"/>
-      <c r="H472" s="12"/>
+      <c r="H472" s="14"/>
     </row>
     <row r="473">
       <c r="B473" s="13"/>
-      <c r="H473" s="12"/>
+      <c r="H473" s="14"/>
     </row>
     <row r="474">
       <c r="B474" s="13"/>
-      <c r="H474" s="12"/>
+      <c r="H474" s="14"/>
     </row>
     <row r="475">
       <c r="B475" s="13"/>
-      <c r="H475" s="12"/>
+      <c r="H475" s="14"/>
     </row>
     <row r="476">
       <c r="B476" s="13"/>
-      <c r="H476" s="12"/>
+      <c r="H476" s="14"/>
     </row>
     <row r="477">
       <c r="B477" s="13"/>
-      <c r="H477" s="12"/>
+      <c r="H477" s="14"/>
     </row>
     <row r="478">
       <c r="B478" s="13"/>
-      <c r="H478" s="12"/>
+      <c r="H478" s="14"/>
     </row>
     <row r="479">
       <c r="B479" s="13"/>
-      <c r="H479" s="12"/>
+      <c r="H479" s="14"/>
     </row>
     <row r="480">
       <c r="B480" s="13"/>
-      <c r="H480" s="12"/>
+      <c r="H480" s="14"/>
     </row>
     <row r="481">
       <c r="B481" s="13"/>
-      <c r="H481" s="12"/>
+      <c r="H481" s="14"/>
     </row>
     <row r="482">
       <c r="B482" s="13"/>
-      <c r="H482" s="12"/>
+      <c r="H482" s="14"/>
     </row>
     <row r="483">
       <c r="B483" s="13"/>
-      <c r="H483" s="12"/>
+      <c r="H483" s="14"/>
     </row>
     <row r="484">
       <c r="B484" s="13"/>
-      <c r="H484" s="12"/>
+      <c r="H484" s="14"/>
     </row>
     <row r="485">
       <c r="B485" s="13"/>
-      <c r="H485" s="12"/>
+      <c r="H485" s="14"/>
     </row>
     <row r="486">
       <c r="B486" s="13"/>
-      <c r="H486" s="12"/>
+      <c r="H486" s="14"/>
     </row>
     <row r="487">
       <c r="B487" s="13"/>
-      <c r="H487" s="12"/>
+      <c r="H487" s="14"/>
     </row>
     <row r="488">
       <c r="B488" s="13"/>
-      <c r="H488" s="12"/>
+      <c r="H488" s="14"/>
     </row>
     <row r="489">
       <c r="B489" s="13"/>
-      <c r="H489" s="12"/>
+      <c r="H489" s="14"/>
     </row>
     <row r="490">
       <c r="B490" s="13"/>
-      <c r="H490" s="12"/>
+      <c r="H490" s="14"/>
     </row>
     <row r="491">
       <c r="B491" s="13"/>
-      <c r="H491" s="12"/>
+      <c r="H491" s="14"/>
     </row>
     <row r="492">
       <c r="B492" s="13"/>
-      <c r="H492" s="12"/>
+      <c r="H492" s="14"/>
     </row>
     <row r="493">
       <c r="B493" s="13"/>
-      <c r="H493" s="12"/>
+      <c r="H493" s="14"/>
     </row>
     <row r="494">
       <c r="B494" s="13"/>
-      <c r="H494" s="12"/>
+      <c r="H494" s="14"/>
     </row>
     <row r="495">
       <c r="B495" s="13"/>
-      <c r="H495" s="12"/>
+      <c r="H495" s="14"/>
     </row>
     <row r="496">
       <c r="B496" s="13"/>
-      <c r="H496" s="12"/>
+      <c r="H496" s="14"/>
     </row>
     <row r="497">
       <c r="B497" s="13"/>
-      <c r="H497" s="12"/>
+      <c r="H497" s="14"/>
     </row>
     <row r="498">
       <c r="B498" s="13"/>
-      <c r="H498" s="12"/>
+      <c r="H498" s="14"/>
     </row>
     <row r="499">
       <c r="B499" s="13"/>
-      <c r="H499" s="12"/>
+      <c r="H499" s="14"/>
     </row>
     <row r="500">
       <c r="B500" s="13"/>
-      <c r="H500" s="12"/>
+      <c r="H500" s="14"/>
     </row>
     <row r="501">
       <c r="B501" s="13"/>
-      <c r="H501" s="12"/>
+      <c r="H501" s="14"/>
     </row>
     <row r="502">
       <c r="B502" s="13"/>
-      <c r="H502" s="12"/>
+      <c r="H502" s="14"/>
     </row>
     <row r="503">
       <c r="B503" s="13"/>
-      <c r="H503" s="12"/>
+      <c r="H503" s="14"/>
     </row>
     <row r="504">
       <c r="B504" s="13"/>
-      <c r="H504" s="12"/>
+      <c r="H504" s="14"/>
     </row>
     <row r="505">
       <c r="B505" s="13"/>
-      <c r="H505" s="12"/>
+      <c r="H505" s="14"/>
     </row>
     <row r="506">
       <c r="B506" s="13"/>
-      <c r="H506" s="12"/>
+      <c r="H506" s="14"/>
     </row>
     <row r="507">
       <c r="B507" s="13"/>
-      <c r="H507" s="12"/>
+      <c r="H507" s="14"/>
     </row>
     <row r="508">
       <c r="B508" s="13"/>
-      <c r="H508" s="12"/>
+      <c r="H508" s="14"/>
     </row>
     <row r="509">
       <c r="B509" s="13"/>
-      <c r="H509" s="12"/>
+      <c r="H509" s="14"/>
     </row>
     <row r="510">
       <c r="B510" s="13"/>
-      <c r="H510" s="12"/>
+      <c r="H510" s="14"/>
     </row>
     <row r="511">
       <c r="B511" s="13"/>
-      <c r="H511" s="12"/>
+      <c r="H511" s="14"/>
     </row>
     <row r="512">
       <c r="B512" s="13"/>
-      <c r="H512" s="12"/>
+      <c r="H512" s="14"/>
     </row>
     <row r="513">
       <c r="B513" s="13"/>
-      <c r="H513" s="12"/>
+      <c r="H513" s="14"/>
     </row>
     <row r="514">
       <c r="B514" s="13"/>
-      <c r="H514" s="12"/>
+      <c r="H514" s="14"/>
     </row>
     <row r="515">
       <c r="B515" s="13"/>
-      <c r="H515" s="12"/>
+      <c r="H515" s="14"/>
     </row>
     <row r="516">
       <c r="B516" s="13"/>
-      <c r="H516" s="12"/>
+      <c r="H516" s="14"/>
     </row>
     <row r="517">
       <c r="B517" s="13"/>
-      <c r="H517" s="12"/>
+      <c r="H517" s="14"/>
     </row>
     <row r="518">
       <c r="B518" s="13"/>
-      <c r="H518" s="12"/>
+      <c r="H518" s="14"/>
     </row>
     <row r="519">
       <c r="B519" s="13"/>
-      <c r="H519" s="12"/>
+      <c r="H519" s="14"/>
     </row>
     <row r="520">
       <c r="B520" s="13"/>
-      <c r="H520" s="12"/>
+      <c r="H520" s="14"/>
     </row>
     <row r="521">
       <c r="B521" s="13"/>
-      <c r="H521" s="12"/>
+      <c r="H521" s="14"/>
     </row>
     <row r="522">
       <c r="B522" s="13"/>
-      <c r="H522" s="12"/>
+      <c r="H522" s="14"/>
     </row>
     <row r="523">
       <c r="B523" s="13"/>
-      <c r="H523" s="12"/>
+      <c r="H523" s="14"/>
     </row>
     <row r="524">
       <c r="B524" s="13"/>
-      <c r="H524" s="12"/>
+      <c r="H524" s="14"/>
     </row>
     <row r="525">
       <c r="B525" s="13"/>
-      <c r="H525" s="12"/>
+      <c r="H525" s="14"/>
     </row>
     <row r="526">
       <c r="B526" s="13"/>
-      <c r="H526" s="12"/>
+      <c r="H526" s="14"/>
     </row>
     <row r="527">
       <c r="B527" s="13"/>
-      <c r="H527" s="12"/>
+      <c r="H527" s="14"/>
     </row>
     <row r="528">
       <c r="B528" s="13"/>
-      <c r="H528" s="12"/>
+      <c r="H528" s="14"/>
     </row>
     <row r="529">
       <c r="B529" s="13"/>
-      <c r="H529" s="12"/>
+      <c r="H529" s="14"/>
     </row>
     <row r="530">
       <c r="B530" s="13"/>
-      <c r="H530" s="12"/>
+      <c r="H530" s="14"/>
     </row>
     <row r="531">
       <c r="B531" s="13"/>
-      <c r="H531" s="12"/>
+      <c r="H531" s="14"/>
     </row>
     <row r="532">
       <c r="B532" s="13"/>
-      <c r="H532" s="12"/>
+      <c r="H532" s="14"/>
     </row>
     <row r="533">
       <c r="B533" s="13"/>
-      <c r="H533" s="12"/>
+      <c r="H533" s="14"/>
     </row>
     <row r="534">
       <c r="B534" s="13"/>
-      <c r="H534" s="12"/>
+      <c r="H534" s="14"/>
     </row>
     <row r="535">
       <c r="B535" s="13"/>
-      <c r="H535" s="12"/>
+      <c r="H535" s="14"/>
     </row>
     <row r="536">
       <c r="B536" s="13"/>
-      <c r="H536" s="12"/>
+      <c r="H536" s="14"/>
     </row>
     <row r="537">
       <c r="B537" s="13"/>
-      <c r="H537" s="12"/>
+      <c r="H537" s="14"/>
     </row>
     <row r="538">
       <c r="B538" s="13"/>
-      <c r="H538" s="12"/>
+      <c r="H538" s="14"/>
     </row>
     <row r="539">
       <c r="B539" s="13"/>
-      <c r="H539" s="12"/>
+      <c r="H539" s="14"/>
     </row>
     <row r="540">
       <c r="B540" s="13"/>
-      <c r="H540" s="12"/>
+      <c r="H540" s="14"/>
     </row>
     <row r="541">
       <c r="B541" s="13"/>
-      <c r="H541" s="12"/>
+      <c r="H541" s="14"/>
     </row>
     <row r="542">
       <c r="B542" s="13"/>
-      <c r="H542" s="12"/>
+      <c r="H542" s="14"/>
     </row>
     <row r="543">
       <c r="B543" s="13"/>
-      <c r="H543" s="12"/>
+      <c r="H543" s="14"/>
     </row>
     <row r="544">
       <c r="B544" s="13"/>
-      <c r="H544" s="12"/>
+      <c r="H544" s="14"/>
     </row>
     <row r="545">
       <c r="B545" s="13"/>
-      <c r="H545" s="12"/>
+      <c r="H545" s="14"/>
     </row>
     <row r="546">
       <c r="B546" s="13"/>
-      <c r="H546" s="12"/>
+      <c r="H546" s="14"/>
     </row>
     <row r="547">
       <c r="B547" s="13"/>
-      <c r="H547" s="12"/>
+      <c r="H547" s="14"/>
     </row>
     <row r="548">
       <c r="B548" s="13"/>
-      <c r="H548" s="12"/>
+      <c r="H548" s="14"/>
     </row>
     <row r="549">
       <c r="B549" s="13"/>
-      <c r="H549" s="12"/>
+      <c r="H549" s="14"/>
     </row>
     <row r="550">
       <c r="B550" s="13"/>
-      <c r="H550" s="12"/>
+      <c r="H550" s="14"/>
     </row>
     <row r="551">
       <c r="B551" s="13"/>
-      <c r="H551" s="12"/>
+      <c r="H551" s="14"/>
     </row>
     <row r="552">
       <c r="B552" s="13"/>
-      <c r="H552" s="12"/>
+      <c r="H552" s="14"/>
     </row>
     <row r="553">
       <c r="B553" s="13"/>
-      <c r="H553" s="12"/>
+      <c r="H553" s="14"/>
     </row>
     <row r="554">
       <c r="B554" s="13"/>
-      <c r="H554" s="12"/>
+      <c r="H554" s="14"/>
     </row>
     <row r="555">
       <c r="B555" s="13"/>
-      <c r="H555" s="12"/>
+      <c r="H555" s="14"/>
     </row>
     <row r="556">
       <c r="B556" s="13"/>
-      <c r="H556" s="12"/>
+      <c r="H556" s="14"/>
     </row>
     <row r="557">
       <c r="B557" s="13"/>
-      <c r="H557" s="12"/>
+      <c r="H557" s="14"/>
     </row>
     <row r="558">
       <c r="B558" s="13"/>
-      <c r="H558" s="12"/>
+      <c r="H558" s="14"/>
     </row>
     <row r="559">
       <c r="B559" s="13"/>
-      <c r="H559" s="12"/>
+      <c r="H559" s="14"/>
     </row>
     <row r="560">
       <c r="B560" s="13"/>
-      <c r="H560" s="12"/>
+      <c r="H560" s="14"/>
     </row>
     <row r="561">
       <c r="B561" s="13"/>
-      <c r="H561" s="12"/>
+      <c r="H561" s="14"/>
     </row>
     <row r="562">
       <c r="B562" s="13"/>
-      <c r="H562" s="12"/>
+      <c r="H562" s="14"/>
     </row>
     <row r="563">
       <c r="B563" s="13"/>
-      <c r="H563" s="12"/>
+      <c r="H563" s="14"/>
     </row>
     <row r="564">
       <c r="B564" s="13"/>
-      <c r="H564" s="12"/>
+      <c r="H564" s="14"/>
     </row>
     <row r="565">
       <c r="B565" s="13"/>
-      <c r="H565" s="12"/>
+      <c r="H565" s="14"/>
     </row>
     <row r="566">
       <c r="B566" s="13"/>
-      <c r="H566" s="12"/>
+      <c r="H566" s="14"/>
     </row>
     <row r="567">
       <c r="B567" s="13"/>
-      <c r="H567" s="12"/>
+      <c r="H567" s="14"/>
     </row>
     <row r="568">
       <c r="B568" s="13"/>
-      <c r="H568" s="12"/>
+      <c r="H568" s="14"/>
     </row>
     <row r="569">
       <c r="B569" s="13"/>
-      <c r="H569" s="12"/>
+      <c r="H569" s="14"/>
     </row>
     <row r="570">
       <c r="B570" s="13"/>
-      <c r="H570" s="12"/>
+      <c r="H570" s="14"/>
     </row>
     <row r="571">
       <c r="B571" s="13"/>
-      <c r="H571" s="12"/>
+      <c r="H571" s="14"/>
     </row>
     <row r="572">
       <c r="B572" s="13"/>
-      <c r="H572" s="12"/>
+      <c r="H572" s="14"/>
     </row>
     <row r="573">
       <c r="B573" s="13"/>
-      <c r="H573" s="12"/>
+      <c r="H573" s="14"/>
     </row>
     <row r="574">
       <c r="B574" s="13"/>
-      <c r="H574" s="12"/>
+      <c r="H574" s="14"/>
     </row>
     <row r="575">
       <c r="B575" s="13"/>
-      <c r="H575" s="12"/>
+      <c r="H575" s="14"/>
     </row>
     <row r="576">
       <c r="B576" s="13"/>
-      <c r="H576" s="12"/>
+      <c r="H576" s="14"/>
     </row>
     <row r="577">
       <c r="B577" s="13"/>
-      <c r="H577" s="12"/>
+      <c r="H577" s="14"/>
     </row>
     <row r="578">
       <c r="B578" s="13"/>
-      <c r="H578" s="12"/>
+      <c r="H578" s="14"/>
     </row>
     <row r="579">
       <c r="B579" s="13"/>
-      <c r="H579" s="12"/>
+      <c r="H579" s="14"/>
     </row>
     <row r="580">
       <c r="B580" s="13"/>
-      <c r="H580" s="12"/>
+      <c r="H580" s="14"/>
     </row>
     <row r="581">
       <c r="B581" s="13"/>
-      <c r="H581" s="12"/>
+      <c r="H581" s="14"/>
     </row>
     <row r="582">
       <c r="B582" s="13"/>
-      <c r="H582" s="12"/>
+      <c r="H582" s="14"/>
     </row>
     <row r="583">
       <c r="B583" s="13"/>
-      <c r="H583" s="12"/>
+      <c r="H583" s="14"/>
     </row>
     <row r="584">
       <c r="B584" s="13"/>
-      <c r="H584" s="12"/>
+      <c r="H584" s="14"/>
     </row>
     <row r="585">
       <c r="B585" s="13"/>
-      <c r="H585" s="12"/>
+      <c r="H585" s="14"/>
     </row>
     <row r="586">
       <c r="B586" s="13"/>
-      <c r="H586" s="12"/>
+      <c r="H586" s="14"/>
     </row>
     <row r="587">
       <c r="B587" s="13"/>
-      <c r="H587" s="12"/>
+      <c r="H587" s="14"/>
     </row>
     <row r="588">
       <c r="B588" s="13"/>
-      <c r="H588" s="12"/>
+      <c r="H588" s="14"/>
     </row>
     <row r="589">
       <c r="B589" s="13"/>
-      <c r="H589" s="12"/>
+      <c r="H589" s="14"/>
     </row>
     <row r="590">
       <c r="B590" s="13"/>
-      <c r="H590" s="12"/>
+      <c r="H590" s="14"/>
     </row>
     <row r="591">
       <c r="B591" s="13"/>
-      <c r="H591" s="12"/>
+      <c r="H591" s="14"/>
     </row>
     <row r="592">
       <c r="B592" s="13"/>
-      <c r="H592" s="12"/>
+      <c r="H592" s="14"/>
     </row>
     <row r="593">
       <c r="B593" s="13"/>
-      <c r="H593" s="12"/>
+      <c r="H593" s="14"/>
     </row>
     <row r="594">
       <c r="B594" s="13"/>
-      <c r="H594" s="12"/>
+      <c r="H594" s="14"/>
     </row>
     <row r="595">
       <c r="B595" s="13"/>
-      <c r="H595" s="12"/>
+      <c r="H595" s="14"/>
     </row>
     <row r="596">
       <c r="B596" s="13"/>
-      <c r="H596" s="12"/>
+      <c r="H596" s="14"/>
     </row>
     <row r="597">
       <c r="B597" s="13"/>
-      <c r="H597" s="12"/>
+      <c r="H597" s="14"/>
     </row>
     <row r="598">
       <c r="B598" s="13"/>
-      <c r="H598" s="12"/>
+      <c r="H598" s="14"/>
     </row>
     <row r="599">
       <c r="B599" s="13"/>
-      <c r="H599" s="12"/>
+      <c r="H599" s="14"/>
     </row>
     <row r="600">
       <c r="B600" s="13"/>
-      <c r="H600" s="12"/>
+      <c r="H600" s="14"/>
     </row>
     <row r="601">
       <c r="B601" s="13"/>
-      <c r="H601" s="12"/>
+      <c r="H601" s="14"/>
     </row>
     <row r="602">
       <c r="B602" s="13"/>
-      <c r="H602" s="12"/>
+      <c r="H602" s="14"/>
     </row>
     <row r="603">
       <c r="B603" s="13"/>
-      <c r="H603" s="12"/>
+      <c r="H603" s="14"/>
     </row>
     <row r="604">
       <c r="B604" s="13"/>
-      <c r="H604" s="12"/>
+      <c r="H604" s="14"/>
     </row>
     <row r="605">
       <c r="B605" s="13"/>
-      <c r="H605" s="12"/>
+      <c r="H605" s="14"/>
     </row>
     <row r="606">
       <c r="B606" s="13"/>
-      <c r="H606" s="12"/>
+      <c r="H606" s="14"/>
     </row>
     <row r="607">
       <c r="B607" s="13"/>
-      <c r="H607" s="12"/>
+      <c r="H607" s="14"/>
     </row>
     <row r="608">
       <c r="B608" s="13"/>
-      <c r="H608" s="12"/>
+      <c r="H608" s="14"/>
     </row>
     <row r="609">
       <c r="B609" s="13"/>
-      <c r="H609" s="12"/>
+      <c r="H609" s="14"/>
     </row>
     <row r="610">
       <c r="B610" s="13"/>
-      <c r="H610" s="12"/>
+      <c r="H610" s="14"/>
     </row>
     <row r="611">
       <c r="B611" s="13"/>
-      <c r="H611" s="12"/>
+      <c r="H611" s="14"/>
     </row>
     <row r="612">
       <c r="B612" s="13"/>
-      <c r="H612" s="12"/>
+      <c r="H612" s="14"/>
     </row>
     <row r="613">
       <c r="B613" s="13"/>
-      <c r="H613" s="12"/>
+      <c r="H613" s="14"/>
     </row>
     <row r="614">
       <c r="B614" s="13"/>
-      <c r="H614" s="12"/>
+      <c r="H614" s="14"/>
     </row>
     <row r="615">
       <c r="B615" s="13"/>
-      <c r="H615" s="12"/>
+      <c r="H615" s="14"/>
     </row>
     <row r="616">
       <c r="B616" s="13"/>
-      <c r="H616" s="12"/>
+      <c r="H616" s="14"/>
     </row>
     <row r="617">
       <c r="B617" s="13"/>
-      <c r="H617" s="12"/>
+      <c r="H617" s="14"/>
     </row>
     <row r="618">
       <c r="B618" s="13"/>
-      <c r="H618" s="12"/>
+      <c r="H618" s="14"/>
     </row>
     <row r="619">
       <c r="B619" s="13"/>
-      <c r="H619" s="12"/>
+      <c r="H619" s="14"/>
     </row>
     <row r="620">
       <c r="B620" s="13"/>
-      <c r="H620" s="12"/>
+      <c r="H620" s="14"/>
     </row>
     <row r="621">
       <c r="B621" s="13"/>
-      <c r="H621" s="12"/>
+      <c r="H621" s="14"/>
     </row>
     <row r="622">
       <c r="B622" s="13"/>
-      <c r="H622" s="12"/>
+      <c r="H622" s="14"/>
     </row>
     <row r="623">
       <c r="B623" s="13"/>
-      <c r="H623" s="12"/>
+      <c r="H623" s="14"/>
     </row>
     <row r="624">
       <c r="B624" s="13"/>
-      <c r="H624" s="12"/>
+      <c r="H624" s="14"/>
     </row>
     <row r="625">
       <c r="B625" s="13"/>
-      <c r="H625" s="12"/>
+      <c r="H625" s="14"/>
     </row>
     <row r="626">
       <c r="B626" s="13"/>
-      <c r="H626" s="12"/>
+      <c r="H626" s="14"/>
     </row>
     <row r="627">
       <c r="B627" s="13"/>
-      <c r="H627" s="12"/>
+      <c r="H627" s="14"/>
     </row>
     <row r="628">
       <c r="B628" s="13"/>
-      <c r="H628" s="12"/>
+      <c r="H628" s="14"/>
     </row>
     <row r="629">
       <c r="B629" s="13"/>
-      <c r="H629" s="12"/>
+      <c r="H629" s="14"/>
     </row>
     <row r="630">
       <c r="B630" s="13"/>
-      <c r="H630" s="12"/>
+      <c r="H630" s="14"/>
     </row>
     <row r="631">
       <c r="B631" s="13"/>
-      <c r="H631" s="12"/>
+      <c r="H631" s="14"/>
     </row>
     <row r="632">
       <c r="B632" s="13"/>
-      <c r="H632" s="12"/>
+      <c r="H632" s="14"/>
     </row>
     <row r="633">
       <c r="B633" s="13"/>
-      <c r="H633" s="12"/>
+      <c r="H633" s="14"/>
     </row>
     <row r="634">
       <c r="B634" s="13"/>
-      <c r="H634" s="12"/>
+      <c r="H634" s="14"/>
     </row>
     <row r="635">
       <c r="B635" s="13"/>
-      <c r="H635" s="12"/>
+      <c r="H635" s="14"/>
     </row>
     <row r="636">
       <c r="B636" s="13"/>
-      <c r="H636" s="12"/>
+      <c r="H636" s="14"/>
     </row>
     <row r="637">
       <c r="B637" s="13"/>
-      <c r="H637" s="12"/>
+      <c r="H637" s="14"/>
     </row>
     <row r="638">
       <c r="B638" s="13"/>
-      <c r="H638" s="12"/>
+      <c r="H638" s="14"/>
     </row>
     <row r="639">
       <c r="B639" s="13"/>
-      <c r="H639" s="12"/>
+      <c r="H639" s="14"/>
     </row>
     <row r="640">
       <c r="B640" s="13"/>
-      <c r="H640" s="12"/>
+      <c r="H640" s="14"/>
     </row>
     <row r="641">
       <c r="B641" s="13"/>
-      <c r="H641" s="12"/>
+      <c r="H641" s="14"/>
     </row>
     <row r="642">
       <c r="B642" s="13"/>
-      <c r="H642" s="12"/>
+      <c r="H642" s="14"/>
     </row>
     <row r="643">
       <c r="B643" s="13"/>
-      <c r="H643" s="12"/>
+      <c r="H643" s="14"/>
     </row>
     <row r="644">
       <c r="B644" s="13"/>
-      <c r="H644" s="12"/>
+      <c r="H644" s="14"/>
     </row>
     <row r="645">
       <c r="B645" s="13"/>
-      <c r="H645" s="12"/>
+      <c r="H645" s="14"/>
     </row>
     <row r="646">
       <c r="B646" s="13"/>
-      <c r="H646" s="12"/>
+      <c r="H646" s="14"/>
     </row>
     <row r="647">
       <c r="B647" s="13"/>
-      <c r="H647" s="12"/>
+      <c r="H647" s="14"/>
     </row>
     <row r="648">
       <c r="B648" s="13"/>
-      <c r="H648" s="12"/>
+      <c r="H648" s="14"/>
     </row>
     <row r="649">
       <c r="B649" s="13"/>
-      <c r="H649" s="12"/>
+      <c r="H649" s="14"/>
     </row>
     <row r="650">
       <c r="B650" s="13"/>
-      <c r="H650" s="12"/>
+      <c r="H650" s="14"/>
     </row>
     <row r="651">
       <c r="B651" s="13"/>
-      <c r="H651" s="12"/>
+      <c r="H651" s="14"/>
     </row>
     <row r="652">
       <c r="B652" s="13"/>
-      <c r="H652" s="12"/>
+      <c r="H652" s="14"/>
     </row>
     <row r="653">
       <c r="B653" s="13"/>
-      <c r="H653" s="12"/>
+      <c r="H653" s="14"/>
     </row>
     <row r="654">
       <c r="B654" s="13"/>
-      <c r="H654" s="12"/>
+      <c r="H654" s="14"/>
     </row>
     <row r="655">
       <c r="B655" s="13"/>
-      <c r="H655" s="12"/>
+      <c r="H655" s="14"/>
     </row>
     <row r="656">
       <c r="B656" s="13"/>
-      <c r="H656" s="12"/>
+      <c r="H656" s="14"/>
     </row>
     <row r="657">
       <c r="B657" s="13"/>
-      <c r="H657" s="12"/>
+      <c r="H657" s="14"/>
     </row>
     <row r="658">
       <c r="B658" s="13"/>
-      <c r="H658" s="12"/>
+      <c r="H658" s="14"/>
     </row>
     <row r="659">
       <c r="B659" s="13"/>
-      <c r="H659" s="12"/>
+      <c r="H659" s="14"/>
     </row>
     <row r="660">
       <c r="B660" s="13"/>
-      <c r="H660" s="12"/>
+      <c r="H660" s="14"/>
     </row>
     <row r="661">
       <c r="B661" s="13"/>
-      <c r="H661" s="12"/>
+      <c r="H661" s="14"/>
     </row>
     <row r="662">
       <c r="B662" s="13"/>
-      <c r="H662" s="12"/>
+      <c r="H662" s="14"/>
     </row>
     <row r="663">
       <c r="B663" s="13"/>
-      <c r="H663" s="12"/>
+      <c r="H663" s="14"/>
     </row>
     <row r="664">
       <c r="B664" s="13"/>
-      <c r="H664" s="12"/>
+      <c r="H664" s="14"/>
     </row>
     <row r="665">
       <c r="B665" s="13"/>
-      <c r="H665" s="12"/>
+      <c r="H665" s="14"/>
     </row>
     <row r="666">
       <c r="B666" s="13"/>
-      <c r="H666" s="12"/>
+      <c r="H666" s="14"/>
     </row>
     <row r="667">
       <c r="B667" s="13"/>
-      <c r="H667" s="12"/>
+      <c r="H667" s="14"/>
     </row>
     <row r="668">
       <c r="B668" s="13"/>
-      <c r="H668" s="12"/>
+      <c r="H668" s="14"/>
     </row>
     <row r="669">
       <c r="B669" s="13"/>
-      <c r="H669" s="12"/>
+      <c r="H669" s="14"/>
     </row>
     <row r="670">
       <c r="B670" s="13"/>
-      <c r="H670" s="12"/>
+      <c r="H670" s="14"/>
     </row>
     <row r="671">
       <c r="B671" s="13"/>
-      <c r="H671" s="12"/>
+      <c r="H671" s="14"/>
     </row>
     <row r="672">
       <c r="B672" s="13"/>
-      <c r="H672" s="12"/>
+      <c r="H672" s="14"/>
     </row>
     <row r="673">
       <c r="B673" s="13"/>
-      <c r="H673" s="12"/>
+      <c r="H673" s="14"/>
     </row>
     <row r="674">
       <c r="B674" s="13"/>
-      <c r="H674" s="12"/>
+      <c r="H674" s="14"/>
     </row>
     <row r="675">
       <c r="B675" s="13"/>
-      <c r="H675" s="12"/>
+      <c r="H675" s="14"/>
     </row>
     <row r="676">
       <c r="B676" s="13"/>
-      <c r="H676" s="12"/>
+      <c r="H676" s="14"/>
     </row>
     <row r="677">
       <c r="B677" s="13"/>
-      <c r="H677" s="12"/>
+      <c r="H677" s="14"/>
     </row>
     <row r="678">
       <c r="B678" s="13"/>
-      <c r="H678" s="12"/>
+      <c r="H678" s="14"/>
     </row>
     <row r="679">
       <c r="B679" s="13"/>
-      <c r="H679" s="12"/>
+      <c r="H679" s="14"/>
     </row>
     <row r="680">
       <c r="B680" s="13"/>
-      <c r="H680" s="12"/>
+      <c r="H680" s="14"/>
     </row>
     <row r="681">
       <c r="B681" s="13"/>
-      <c r="H681" s="12"/>
+      <c r="H681" s="14"/>
     </row>
     <row r="682">
       <c r="B682" s="13"/>
-      <c r="H682" s="12"/>
+      <c r="H682" s="14"/>
     </row>
     <row r="683">
       <c r="B683" s="13"/>
-      <c r="H683" s="12"/>
+      <c r="H683" s="14"/>
     </row>
     <row r="684">
       <c r="B684" s="13"/>
-      <c r="H684" s="12"/>
+      <c r="H684" s="14"/>
     </row>
     <row r="685">
       <c r="B685" s="13"/>
-      <c r="H685" s="12"/>
+      <c r="H685" s="14"/>
     </row>
     <row r="686">
       <c r="B686" s="13"/>
-      <c r="H686" s="12"/>
+      <c r="H686" s="14"/>
     </row>
     <row r="687">
       <c r="B687" s="13"/>
-      <c r="H687" s="12"/>
+      <c r="H687" s="14"/>
     </row>
     <row r="688">
       <c r="B688" s="13"/>
-      <c r="H688" s="12"/>
+      <c r="H688" s="14"/>
     </row>
     <row r="689">
       <c r="B689" s="13"/>
-      <c r="H689" s="12"/>
+      <c r="H689" s="14"/>
     </row>
     <row r="690">
       <c r="B690" s="13"/>
-      <c r="H690" s="12"/>
+      <c r="H690" s="14"/>
     </row>
     <row r="691">
       <c r="B691" s="13"/>
-      <c r="H691" s="12"/>
+      <c r="H691" s="14"/>
     </row>
     <row r="692">
       <c r="B692" s="13"/>
-      <c r="H692" s="12"/>
+      <c r="H692" s="14"/>
     </row>
     <row r="693">
       <c r="B693" s="13"/>
-      <c r="H693" s="12"/>
+      <c r="H693" s="14"/>
     </row>
     <row r="694">
       <c r="B694" s="13"/>
-      <c r="H694" s="12"/>
+      <c r="H694" s="14"/>
     </row>
     <row r="695">
       <c r="B695" s="13"/>
-      <c r="H695" s="12"/>
+      <c r="H695" s="14"/>
     </row>
     <row r="696">
       <c r="B696" s="13"/>
-      <c r="H696" s="12"/>
+      <c r="H696" s="14"/>
     </row>
     <row r="697">
       <c r="B697" s="13"/>
-      <c r="H697" s="12"/>
+      <c r="H697" s="14"/>
     </row>
     <row r="698">
       <c r="B698" s="13"/>
-      <c r="H698" s="12"/>
+      <c r="H698" s="14"/>
     </row>
     <row r="699">
       <c r="B699" s="13"/>
-      <c r="H699" s="12"/>
+      <c r="H699" s="14"/>
     </row>
     <row r="700">
       <c r="B700" s="13"/>
-      <c r="H700" s="12"/>
+      <c r="H700" s="14"/>
     </row>
     <row r="701">
       <c r="B701" s="13"/>
-      <c r="H701" s="12"/>
+      <c r="H701" s="14"/>
     </row>
     <row r="702">
       <c r="B702" s="13"/>
-      <c r="H702" s="12"/>
+      <c r="H702" s="14"/>
     </row>
     <row r="703">
       <c r="B703" s="13"/>
-      <c r="H703" s="12"/>
+      <c r="H703" s="14"/>
     </row>
     <row r="704">
       <c r="B704" s="13"/>
-      <c r="H704" s="12"/>
+      <c r="H704" s="14"/>
     </row>
     <row r="705">
       <c r="B705" s="13"/>
-      <c r="H705" s="12"/>
+      <c r="H705" s="14"/>
     </row>
     <row r="706">
       <c r="B706" s="13"/>
-      <c r="H706" s="12"/>
+      <c r="H706" s="14"/>
     </row>
     <row r="707">
       <c r="B707" s="13"/>
-      <c r="H707" s="12"/>
+      <c r="H707" s="14"/>
     </row>
     <row r="708">
       <c r="B708" s="13"/>
-      <c r="H708" s="12"/>
+      <c r="H708" s="14"/>
     </row>
     <row r="709">
       <c r="B709" s="13"/>
-      <c r="H709" s="12"/>
+      <c r="H709" s="14"/>
     </row>
     <row r="710">
       <c r="B710" s="13"/>
-      <c r="H710" s="12"/>
+      <c r="H710" s="14"/>
     </row>
     <row r="711">
       <c r="B711" s="13"/>
-      <c r="H711" s="12"/>
+      <c r="H711" s="14"/>
     </row>
     <row r="712">
       <c r="B712" s="13"/>
-      <c r="H712" s="12"/>
+      <c r="H712" s="14"/>
     </row>
     <row r="713">
       <c r="B713" s="13"/>
-      <c r="H713" s="12"/>
+      <c r="H713" s="14"/>
     </row>
     <row r="714">
       <c r="B714" s="13"/>
-      <c r="H714" s="12"/>
+      <c r="H714" s="14"/>
     </row>
     <row r="715">
       <c r="B715" s="13"/>
-      <c r="H715" s="12"/>
+      <c r="H715" s="14"/>
     </row>
     <row r="716">
       <c r="B716" s="13"/>
-      <c r="H716" s="12"/>
+      <c r="H716" s="14"/>
     </row>
     <row r="717">
       <c r="B717" s="13"/>
-      <c r="H717" s="12"/>
+      <c r="H717" s="14"/>
     </row>
     <row r="718">
       <c r="B718" s="13"/>
-      <c r="H718" s="12"/>
+      <c r="H718" s="14"/>
     </row>
     <row r="719">
       <c r="B719" s="13"/>
-      <c r="H719" s="12"/>
+      <c r="H719" s="14"/>
     </row>
     <row r="720">
       <c r="B720" s="13"/>
-      <c r="H720" s="12"/>
+      <c r="H720" s="14"/>
     </row>
     <row r="721">
       <c r="B721" s="13"/>
-      <c r="H721" s="12"/>
+      <c r="H721" s="14"/>
     </row>
     <row r="722">
       <c r="B722" s="13"/>
-      <c r="H722" s="12"/>
+      <c r="H722" s="14"/>
     </row>
     <row r="723">
       <c r="B723" s="13"/>
-      <c r="H723" s="12"/>
+      <c r="H723" s="14"/>
     </row>
     <row r="724">
       <c r="B724" s="13"/>
-      <c r="H724" s="12"/>
+      <c r="H724" s="14"/>
     </row>
     <row r="725">
       <c r="B725" s="13"/>
-      <c r="H725" s="12"/>
+      <c r="H725" s="14"/>
     </row>
     <row r="726">
       <c r="B726" s="13"/>
-      <c r="H726" s="12"/>
+      <c r="H726" s="14"/>
     </row>
     <row r="727">
       <c r="B727" s="13"/>
-      <c r="H727" s="12"/>
+      <c r="H727" s="14"/>
     </row>
     <row r="728">
       <c r="B728" s="13"/>
-      <c r="H728" s="12"/>
+      <c r="H728" s="14"/>
     </row>
     <row r="729">
       <c r="B729" s="13"/>
-      <c r="H729" s="12"/>
+      <c r="H729" s="14"/>
     </row>
     <row r="730">
       <c r="B730" s="13"/>
-      <c r="H730" s="12"/>
+      <c r="H730" s="14"/>
     </row>
     <row r="731">
       <c r="B731" s="13"/>
-      <c r="H731" s="12"/>
+      <c r="H731" s="14"/>
     </row>
     <row r="732">
       <c r="B732" s="13"/>
-      <c r="H732" s="12"/>
+      <c r="H732" s="14"/>
     </row>
     <row r="733">
       <c r="B733" s="13"/>
-      <c r="H733" s="12"/>
+      <c r="H733" s="14"/>
     </row>
     <row r="734">
       <c r="B734" s="13"/>
-      <c r="H734" s="12"/>
+      <c r="H734" s="14"/>
     </row>
     <row r="735">
       <c r="B735" s="13"/>
-      <c r="H735" s="12"/>
+      <c r="H735" s="14"/>
     </row>
     <row r="736">
       <c r="B736" s="13"/>
-      <c r="H736" s="12"/>
+      <c r="H736" s="14"/>
     </row>
     <row r="737">
       <c r="B737" s="13"/>
-      <c r="H737" s="12"/>
+      <c r="H737" s="14"/>
     </row>
     <row r="738">
       <c r="B738" s="13"/>
-      <c r="H738" s="12"/>
+      <c r="H738" s="14"/>
     </row>
     <row r="739">
       <c r="B739" s="13"/>
-      <c r="H739" s="12"/>
+      <c r="H739" s="14"/>
     </row>
     <row r="740">
       <c r="B740" s="13"/>
-      <c r="H740" s="12"/>
+      <c r="H740" s="14"/>
     </row>
     <row r="741">
       <c r="B741" s="13"/>
-      <c r="H741" s="12"/>
+      <c r="H741" s="14"/>
     </row>
     <row r="742">
       <c r="B742" s="13"/>
-      <c r="H742" s="12"/>
+      <c r="H742" s="14"/>
     </row>
     <row r="743">
       <c r="B743" s="13"/>
-      <c r="H743" s="12"/>
+      <c r="H743" s="14"/>
     </row>
     <row r="744">
       <c r="B744" s="13"/>
-      <c r="H744" s="12"/>
+      <c r="H744" s="14"/>
     </row>
     <row r="745">
       <c r="B745" s="13"/>
-      <c r="H745" s="12"/>
+      <c r="H745" s="14"/>
     </row>
     <row r="746">
       <c r="B746" s="13"/>
-      <c r="H746" s="12"/>
+      <c r="H746" s="14"/>
     </row>
     <row r="747">
       <c r="B747" s="13"/>
-      <c r="H747" s="12"/>
+      <c r="H747" s="14"/>
     </row>
     <row r="748">
       <c r="B748" s="13"/>
-      <c r="H748" s="12"/>
+      <c r="H748" s="14"/>
     </row>
     <row r="749">
       <c r="B749" s="13"/>
-      <c r="H749" s="12"/>
+      <c r="H749" s="14"/>
     </row>
     <row r="750">
       <c r="B750" s="13"/>
-      <c r="H750" s="12"/>
+      <c r="H750" s="14"/>
     </row>
     <row r="751">
       <c r="B751" s="13"/>
-      <c r="H751" s="12"/>
+      <c r="H751" s="14"/>
     </row>
     <row r="752">
       <c r="B752" s="13"/>
-      <c r="H752" s="12"/>
+      <c r="H752" s="14"/>
     </row>
     <row r="753">
       <c r="B753" s="13"/>
-      <c r="H753" s="12"/>
+      <c r="H753" s="14"/>
     </row>
     <row r="754">
       <c r="B754" s="13"/>
-      <c r="H754" s="12"/>
+      <c r="H754" s="14"/>
     </row>
     <row r="755">
       <c r="B755" s="13"/>
-      <c r="H755" s="12"/>
+      <c r="H755" s="14"/>
     </row>
     <row r="756">
       <c r="B756" s="13"/>
-      <c r="H756" s="12"/>
+      <c r="H756" s="14"/>
     </row>
     <row r="757">
       <c r="B757" s="13"/>
-      <c r="H757" s="12"/>
+      <c r="H757" s="14"/>
     </row>
     <row r="758">
       <c r="B758" s="13"/>
-      <c r="H758" s="12"/>
+      <c r="H758" s="14"/>
     </row>
     <row r="759">
       <c r="B759" s="13"/>
-      <c r="H759" s="12"/>
+      <c r="H759" s="14"/>
     </row>
     <row r="760">
       <c r="B760" s="13"/>
-      <c r="H760" s="12"/>
+      <c r="H760" s="14"/>
     </row>
     <row r="761">
       <c r="B761" s="13"/>
-      <c r="H761" s="12"/>
+      <c r="H761" s="14"/>
     </row>
     <row r="762">
       <c r="B762" s="13"/>
-      <c r="H762" s="12"/>
+      <c r="H762" s="14"/>
     </row>
     <row r="763">
       <c r="B763" s="13"/>
-      <c r="H763" s="12"/>
+      <c r="H763" s="14"/>
     </row>
     <row r="764">
       <c r="B764" s="13"/>
-      <c r="H764" s="12"/>
+      <c r="H764" s="14"/>
     </row>
     <row r="765">
       <c r="B765" s="13"/>
-      <c r="H765" s="12"/>
+      <c r="H765" s="14"/>
     </row>
     <row r="766">
       <c r="B766" s="13"/>
-      <c r="H766" s="12"/>
+      <c r="H766" s="14"/>
     </row>
     <row r="767">
       <c r="B767" s="13"/>
-      <c r="H767" s="12"/>
+      <c r="H767" s="14"/>
     </row>
     <row r="768">
       <c r="B768" s="13"/>
-      <c r="H768" s="12"/>
+      <c r="H768" s="14"/>
     </row>
     <row r="769">
       <c r="B769" s="13"/>
-      <c r="H769" s="12"/>
+      <c r="H769" s="14"/>
     </row>
     <row r="770">
       <c r="B770" s="13"/>
-      <c r="H770" s="12"/>
+      <c r="H770" s="14"/>
     </row>
     <row r="771">
       <c r="B771" s="13"/>
-      <c r="H771" s="12"/>
+      <c r="H771" s="14"/>
     </row>
     <row r="772">
       <c r="B772" s="13"/>
-      <c r="H772" s="12"/>
+      <c r="H772" s="14"/>
     </row>
     <row r="773">
       <c r="B773" s="13"/>
-      <c r="H773" s="12"/>
+      <c r="H773" s="14"/>
     </row>
     <row r="774">
       <c r="B774" s="13"/>
-      <c r="H774" s="12"/>
+      <c r="H774" s="14"/>
     </row>
     <row r="775">
       <c r="B775" s="13"/>
-      <c r="H775" s="12"/>
+      <c r="H775" s="14"/>
     </row>
     <row r="776">
       <c r="B776" s="13"/>
-      <c r="H776" s="12"/>
+      <c r="H776" s="14"/>
     </row>
     <row r="777">
       <c r="B777" s="13"/>
-      <c r="H777" s="12"/>
+      <c r="H777" s="14"/>
     </row>
     <row r="778">
       <c r="B778" s="13"/>
-      <c r="H778" s="12"/>
+      <c r="H778" s="14"/>
     </row>
     <row r="779">
       <c r="B779" s="13"/>
-      <c r="H779" s="12"/>
+      <c r="H779" s="14"/>
     </row>
     <row r="780">
       <c r="B780" s="13"/>
-      <c r="H780" s="12"/>
+      <c r="H780" s="14"/>
     </row>
     <row r="781">
       <c r="B781" s="13"/>
-      <c r="H781" s="12"/>
+      <c r="H781" s="14"/>
     </row>
     <row r="782">
       <c r="B782" s="13"/>
-      <c r="H782" s="12"/>
+      <c r="H782" s="14"/>
     </row>
     <row r="783">
       <c r="B783" s="13"/>
-      <c r="H783" s="12"/>
+      <c r="H783" s="14"/>
     </row>
     <row r="784">
       <c r="B784" s="13"/>
-      <c r="H784" s="12"/>
+      <c r="H784" s="14"/>
     </row>
     <row r="785">
       <c r="B785" s="13"/>
-      <c r="H785" s="12"/>
+      <c r="H785" s="14"/>
     </row>
     <row r="786">
       <c r="B786" s="13"/>
-      <c r="H786" s="12"/>
+      <c r="H786" s="14"/>
     </row>
     <row r="787">
       <c r="B787" s="13"/>
-      <c r="H787" s="12"/>
+      <c r="H787" s="14"/>
     </row>
     <row r="788">
       <c r="B788" s="13"/>
-      <c r="H788" s="12"/>
+      <c r="H788" s="14"/>
     </row>
     <row r="789">
       <c r="B789" s="13"/>
-      <c r="H789" s="12"/>
+      <c r="H789" s="14"/>
     </row>
     <row r="790">
       <c r="B790" s="13"/>
-      <c r="H790" s="12"/>
+      <c r="H790" s="14"/>
     </row>
     <row r="791">
       <c r="B791" s="13"/>
-      <c r="H791" s="12"/>
+      <c r="H791" s="14"/>
     </row>
     <row r="792">
       <c r="B792" s="13"/>
-      <c r="H792" s="12"/>
+      <c r="H792" s="14"/>
     </row>
     <row r="793">
       <c r="B793" s="13"/>
-      <c r="H793" s="12"/>
+      <c r="H793" s="14"/>
     </row>
     <row r="794">
       <c r="B794" s="13"/>
-      <c r="H794" s="12"/>
+      <c r="H794" s="14"/>
     </row>
     <row r="795">
       <c r="B795" s="13"/>
-      <c r="H795" s="12"/>
+      <c r="H795" s="14"/>
     </row>
     <row r="796">
       <c r="B796" s="13"/>
-      <c r="H796" s="12"/>
+      <c r="H796" s="14"/>
     </row>
     <row r="797">
       <c r="B797" s="13"/>
-      <c r="H797" s="12"/>
+      <c r="H797" s="14"/>
     </row>
     <row r="798">
       <c r="B798" s="13"/>
-      <c r="H798" s="12"/>
+      <c r="H798" s="14"/>
     </row>
     <row r="799">
       <c r="B799" s="13"/>
-      <c r="H799" s="12"/>
+      <c r="H799" s="14"/>
     </row>
     <row r="800">
       <c r="B800" s="13"/>
-      <c r="H800" s="12"/>
+      <c r="H800" s="14"/>
     </row>
     <row r="801">
       <c r="B801" s="13"/>
-      <c r="H801" s="12"/>
+      <c r="H801" s="14"/>
     </row>
     <row r="802">
       <c r="B802" s="13"/>
-      <c r="H802" s="12"/>
+      <c r="H802" s="14"/>
     </row>
     <row r="803">
       <c r="B803" s="13"/>
-      <c r="H803" s="12"/>
+      <c r="H803" s="14"/>
     </row>
     <row r="804">
       <c r="B804" s="13"/>
-      <c r="H804" s="12"/>
+      <c r="H804" s="14"/>
     </row>
     <row r="805">
       <c r="B805" s="13"/>
-      <c r="H805" s="12"/>
+      <c r="H805" s="14"/>
     </row>
     <row r="806">
       <c r="B806" s="13"/>
-      <c r="H806" s="12"/>
+      <c r="H806" s="14"/>
     </row>
     <row r="807">
       <c r="B807" s="13"/>
-      <c r="H807" s="12"/>
+      <c r="H807" s="14"/>
     </row>
     <row r="808">
       <c r="B808" s="13"/>
-      <c r="H808" s="12"/>
+      <c r="H808" s="14"/>
     </row>
     <row r="809">
       <c r="B809" s="13"/>
-      <c r="H809" s="12"/>
+      <c r="H809" s="14"/>
     </row>
     <row r="810">
       <c r="B810" s="13"/>
-      <c r="H810" s="12"/>
+      <c r="H810" s="14"/>
     </row>
     <row r="811">
       <c r="B811" s="13"/>
-      <c r="H811" s="12"/>
+      <c r="H811" s="14"/>
     </row>
     <row r="812">
       <c r="B812" s="13"/>
-      <c r="H812" s="12"/>
+      <c r="H812" s="14"/>
     </row>
     <row r="813">
       <c r="B813" s="13"/>
-      <c r="H813" s="12"/>
+      <c r="H813" s="14"/>
     </row>
     <row r="814">
       <c r="B814" s="13"/>
-      <c r="H814" s="12"/>
+      <c r="H814" s="14"/>
     </row>
     <row r="815">
       <c r="B815" s="13"/>
-      <c r="H815" s="12"/>
+      <c r="H815" s="14"/>
     </row>
     <row r="816">
       <c r="B816" s="13"/>
-      <c r="H816" s="12"/>
+      <c r="H816" s="14"/>
     </row>
     <row r="817">
       <c r="B817" s="13"/>
-      <c r="H817" s="12"/>
+      <c r="H817" s="14"/>
     </row>
     <row r="818">
       <c r="B818" s="13"/>
-      <c r="H818" s="12"/>
+      <c r="H818" s="14"/>
     </row>
     <row r="819">
       <c r="B819" s="13"/>
-      <c r="H819" s="12"/>
+      <c r="H819" s="14"/>
     </row>
     <row r="820">
       <c r="B820" s="13"/>
-      <c r="H820" s="12"/>
+      <c r="H820" s="14"/>
     </row>
     <row r="821">
       <c r="B821" s="13"/>
-      <c r="H821" s="12"/>
+      <c r="H821" s="14"/>
     </row>
     <row r="822">
       <c r="B822" s="13"/>
-      <c r="H822" s="12"/>
+      <c r="H822" s="14"/>
     </row>
     <row r="823">
       <c r="B823" s="13"/>
-      <c r="H823" s="12"/>
+      <c r="H823" s="14"/>
     </row>
     <row r="824">
       <c r="B824" s="13"/>
-      <c r="H824" s="12"/>
+      <c r="H824" s="14"/>
     </row>
     <row r="825">
       <c r="B825" s="13"/>
-      <c r="H825" s="12"/>
+      <c r="H825" s="14"/>
     </row>
     <row r="826">
       <c r="B826" s="13"/>
-      <c r="H826" s="12"/>
+      <c r="H826" s="14"/>
     </row>
     <row r="827">
       <c r="B827" s="13"/>
-      <c r="H827" s="12"/>
+      <c r="H827" s="14"/>
     </row>
     <row r="828">
       <c r="B828" s="13"/>
-      <c r="H828" s="12"/>
+      <c r="H828" s="14"/>
     </row>
     <row r="829">
       <c r="B829" s="13"/>
-      <c r="H829" s="12"/>
+      <c r="H829" s="14"/>
     </row>
     <row r="830">
       <c r="B830" s="13"/>
-      <c r="H830" s="12"/>
+      <c r="H830" s="14"/>
     </row>
     <row r="831">
       <c r="B831" s="13"/>
-      <c r="H831" s="12"/>
+      <c r="H831" s="14"/>
     </row>
     <row r="832">
       <c r="B832" s="13"/>
-      <c r="H832" s="12"/>
+      <c r="H832" s="14"/>
     </row>
     <row r="833">
       <c r="B833" s="13"/>
-      <c r="H833" s="12"/>
+      <c r="H833" s="14"/>
     </row>
     <row r="834">
       <c r="B834" s="13"/>
-      <c r="H834" s="12"/>
+      <c r="H834" s="14"/>
     </row>
     <row r="835">
       <c r="B835" s="13"/>
-      <c r="H835" s="12"/>
+      <c r="H835" s="14"/>
     </row>
     <row r="836">
       <c r="B836" s="13"/>
-      <c r="H836" s="12"/>
+      <c r="H836" s="14"/>
     </row>
     <row r="837">
       <c r="B837" s="13"/>
-      <c r="H837" s="12"/>
+      <c r="H837" s="14"/>
     </row>
     <row r="838">
       <c r="B838" s="13"/>
-      <c r="H838" s="12"/>
+      <c r="H838" s="14"/>
     </row>
     <row r="839">
       <c r="B839" s="13"/>
-      <c r="H839" s="12"/>
+      <c r="H839" s="14"/>
     </row>
     <row r="840">
       <c r="B840" s="13"/>
-      <c r="H840" s="12"/>
+      <c r="H840" s="14"/>
     </row>
     <row r="841">
       <c r="B841" s="13"/>
-      <c r="H841" s="12"/>
+      <c r="H841" s="14"/>
     </row>
     <row r="842">
       <c r="B842" s="13"/>
-      <c r="H842" s="12"/>
+      <c r="H842" s="14"/>
     </row>
     <row r="843">
       <c r="B843" s="13"/>
-      <c r="H843" s="12"/>
+      <c r="H843" s="14"/>
     </row>
     <row r="844">
       <c r="B844" s="13"/>
-      <c r="H844" s="12"/>
+      <c r="H844" s="14"/>
     </row>
     <row r="845">
       <c r="B845" s="13"/>
-      <c r="H845" s="12"/>
+      <c r="H845" s="14"/>
     </row>
     <row r="846">
       <c r="B846" s="13"/>
-      <c r="H846" s="12"/>
+      <c r="H846" s="14"/>
     </row>
     <row r="847">
       <c r="B847" s="13"/>
-      <c r="H847" s="12"/>
+      <c r="H847" s="14"/>
     </row>
     <row r="848">
       <c r="B848" s="13"/>
-      <c r="H848" s="12"/>
+      <c r="H848" s="14"/>
     </row>
     <row r="849">
       <c r="B849" s="13"/>
-      <c r="H849" s="12"/>
+      <c r="H849" s="14"/>
     </row>
     <row r="850">
       <c r="B850" s="13"/>
-      <c r="H850" s="12"/>
+      <c r="H850" s="14"/>
     </row>
     <row r="851">
       <c r="B851" s="13"/>
-      <c r="H851" s="12"/>
+      <c r="H851" s="14"/>
     </row>
     <row r="852">
       <c r="B852" s="13"/>
-      <c r="H852" s="12"/>
+      <c r="H852" s="14"/>
     </row>
     <row r="853">
       <c r="B853" s="13"/>
-      <c r="H853" s="12"/>
+      <c r="H853" s="14"/>
     </row>
     <row r="854">
       <c r="B854" s="13"/>
-      <c r="H854" s="12"/>
+      <c r="H854" s="14"/>
     </row>
     <row r="855">
       <c r="B855" s="13"/>
-      <c r="H855" s="12"/>
+      <c r="H855" s="14"/>
     </row>
     <row r="856">
       <c r="B856" s="13"/>
-      <c r="H856" s="12"/>
+      <c r="H856" s="14"/>
     </row>
     <row r="857">
       <c r="B857" s="13"/>
-      <c r="H857" s="12"/>
+      <c r="H857" s="14"/>
     </row>
     <row r="858">
       <c r="B858" s="13"/>
-      <c r="H858" s="12"/>
+      <c r="H858" s="14"/>
     </row>
     <row r="859">
       <c r="B859" s="13"/>
-      <c r="H859" s="12"/>
+      <c r="H859" s="14"/>
     </row>
     <row r="860">
       <c r="B860" s="13"/>
-      <c r="H860" s="12"/>
+      <c r="H860" s="14"/>
     </row>
     <row r="861">
       <c r="B861" s="13"/>
-      <c r="H861" s="12"/>
+      <c r="H861" s="14"/>
     </row>
     <row r="862">
       <c r="B862" s="13"/>
-      <c r="H862" s="12"/>
+      <c r="H862" s="14"/>
     </row>
     <row r="863">
       <c r="B863" s="13"/>
-      <c r="H863" s="12"/>
+      <c r="H863" s="14"/>
     </row>
     <row r="864">
       <c r="B864" s="13"/>
-      <c r="H864" s="12"/>
+      <c r="H864" s="14"/>
     </row>
     <row r="865">
       <c r="B865" s="13"/>
-      <c r="H865" s="12"/>
+      <c r="H865" s="14"/>
     </row>
     <row r="866">
       <c r="B866" s="13"/>
-      <c r="H866" s="12"/>
+      <c r="H866" s="14"/>
     </row>
     <row r="867">
       <c r="B867" s="13"/>
-      <c r="H867" s="12"/>
+      <c r="H867" s="14"/>
     </row>
     <row r="868">
       <c r="B868" s="13"/>
-      <c r="H868" s="12"/>
+      <c r="H868" s="14"/>
     </row>
     <row r="869">
       <c r="B869" s="13"/>
-      <c r="H869" s="12"/>
+      <c r="H869" s="14"/>
     </row>
     <row r="870">
       <c r="B870" s="13"/>
-      <c r="H870" s="12"/>
+      <c r="H870" s="14"/>
     </row>
     <row r="871">
       <c r="B871" s="13"/>
-      <c r="H871" s="12"/>
+      <c r="H871" s="14"/>
     </row>
     <row r="872">
       <c r="B872" s="13"/>
-      <c r="H872" s="12"/>
+      <c r="H872" s="14"/>
     </row>
     <row r="873">
       <c r="B873" s="13"/>
-      <c r="H873" s="12"/>
+      <c r="H873" s="14"/>
     </row>
     <row r="874">
       <c r="B874" s="13"/>
-      <c r="H874" s="12"/>
+      <c r="H874" s="14"/>
     </row>
     <row r="875">
       <c r="B875" s="13"/>
-      <c r="H875" s="12"/>
+      <c r="H875" s="14"/>
     </row>
     <row r="876">
       <c r="B876" s="13"/>
-      <c r="H876" s="12"/>
+      <c r="H876" s="14"/>
     </row>
     <row r="877">
       <c r="B877" s="13"/>
-      <c r="H877" s="12"/>
+      <c r="H877" s="14"/>
     </row>
     <row r="878">
       <c r="B878" s="13"/>
-      <c r="H878" s="12"/>
+      <c r="H878" s="14"/>
     </row>
     <row r="879">
       <c r="B879" s="13"/>
-      <c r="H879" s="12"/>
+      <c r="H879" s="14"/>
     </row>
     <row r="880">
       <c r="B880" s="13"/>
-      <c r="H880" s="12"/>
+      <c r="H880" s="14"/>
     </row>
     <row r="881">
       <c r="B881" s="13"/>
-      <c r="H881" s="12"/>
+      <c r="H881" s="14"/>
     </row>
     <row r="882">
       <c r="B882" s="13"/>
-      <c r="H882" s="12"/>
+      <c r="H882" s="14"/>
     </row>
     <row r="883">
       <c r="B883" s="13"/>
-      <c r="H883" s="12"/>
+      <c r="H883" s="14"/>
     </row>
     <row r="884">
       <c r="B884" s="13"/>
-      <c r="H884" s="12"/>
+      <c r="H884" s="14"/>
     </row>
     <row r="885">
       <c r="B885" s="13"/>
-      <c r="H885" s="12"/>
+      <c r="H885" s="14"/>
     </row>
     <row r="886">
       <c r="B886" s="13"/>
-      <c r="H886" s="12"/>
+      <c r="H886" s="14"/>
     </row>
     <row r="887">
       <c r="B887" s="13"/>
-      <c r="H887" s="12"/>
+      <c r="H887" s="14"/>
     </row>
     <row r="888">
       <c r="B888" s="13"/>
-      <c r="H888" s="12"/>
+      <c r="H888" s="14"/>
     </row>
     <row r="889">
       <c r="B889" s="13"/>
-      <c r="H889" s="12"/>
+      <c r="H889" s="14"/>
     </row>
     <row r="890">
       <c r="B890" s="13"/>
-      <c r="H890" s="12"/>
+      <c r="H890" s="14"/>
     </row>
     <row r="891">
       <c r="B891" s="13"/>
-      <c r="H891" s="12"/>
+      <c r="H891" s="14"/>
     </row>
     <row r="892">
       <c r="B892" s="13"/>
-      <c r="H892" s="12"/>
+      <c r="H892" s="14"/>
     </row>
     <row r="893">
       <c r="B893" s="13"/>
-      <c r="H893" s="12"/>
+      <c r="H893" s="14"/>
     </row>
     <row r="894">
       <c r="B894" s="13"/>
-      <c r="H894" s="12"/>
+      <c r="H894" s="14"/>
     </row>
     <row r="895">
       <c r="B895" s="13"/>
-      <c r="H895" s="12"/>
+      <c r="H895" s="14"/>
     </row>
     <row r="896">
       <c r="B896" s="13"/>
-      <c r="H896" s="12"/>
+      <c r="H896" s="14"/>
     </row>
     <row r="897">
       <c r="B897" s="13"/>
-      <c r="H897" s="12"/>
+      <c r="H897" s="14"/>
     </row>
     <row r="898">
       <c r="B898" s="13"/>
-      <c r="H898" s="12"/>
+      <c r="H898" s="14"/>
     </row>
     <row r="899">
       <c r="B899" s="13"/>
-      <c r="H899" s="12"/>
+      <c r="H899" s="14"/>
     </row>
     <row r="900">
       <c r="B900" s="13"/>
-      <c r="H900" s="12"/>
+      <c r="H900" s="14"/>
     </row>
     <row r="901">
       <c r="B901" s="13"/>
-      <c r="H901" s="12"/>
+      <c r="H901" s="14"/>
     </row>
     <row r="902">
       <c r="B902" s="13"/>
-      <c r="H902" s="12"/>
+      <c r="H902" s="14"/>
     </row>
     <row r="903">
       <c r="B903" s="13"/>
-      <c r="H903" s="12"/>
+      <c r="H903" s="14"/>
     </row>
     <row r="904">
       <c r="B904" s="13"/>
-      <c r="H904" s="12"/>
+      <c r="H904" s="14"/>
     </row>
     <row r="905">
       <c r="B905" s="13"/>
-      <c r="H905" s="12"/>
+      <c r="H905" s="14"/>
     </row>
     <row r="906">
       <c r="B906" s="13"/>
-      <c r="H906" s="12"/>
+      <c r="H906" s="14"/>
     </row>
     <row r="907">
       <c r="B907" s="13"/>
-      <c r="H907" s="12"/>
+      <c r="H907" s="14"/>
     </row>
     <row r="908">
       <c r="B908" s="13"/>
-      <c r="H908" s="12"/>
+      <c r="H908" s="14"/>
     </row>
     <row r="909">
       <c r="B909" s="13"/>
-      <c r="H909" s="12"/>
+      <c r="H909" s="14"/>
     </row>
     <row r="910">
       <c r="B910" s="13"/>
-      <c r="H910" s="12"/>
+      <c r="H910" s="14"/>
     </row>
     <row r="911">
       <c r="B911" s="13"/>
-      <c r="H911" s="12"/>
+      <c r="H911" s="14"/>
     </row>
     <row r="912">
       <c r="B912" s="13"/>
-      <c r="H912" s="12"/>
+      <c r="H912" s="14"/>
     </row>
     <row r="913">
       <c r="B913" s="13"/>
-      <c r="H913" s="12"/>
+      <c r="H913" s="14"/>
     </row>
     <row r="914">
       <c r="B914" s="13"/>
-      <c r="H914" s="12"/>
+      <c r="H914" s="14"/>
     </row>
     <row r="915">
       <c r="B915" s="13"/>
-      <c r="H915" s="12"/>
+      <c r="H915" s="14"/>
     </row>
     <row r="916">
       <c r="B916" s="13"/>
-      <c r="H916" s="12"/>
+      <c r="H916" s="14"/>
     </row>
     <row r="917">
       <c r="B917" s="13"/>
-      <c r="H917" s="12"/>
+      <c r="H917" s="14"/>
     </row>
     <row r="918">
       <c r="B918" s="13"/>
-      <c r="H918" s="12"/>
+      <c r="H918" s="14"/>
     </row>
     <row r="919">
       <c r="B919" s="13"/>
-      <c r="H919" s="12"/>
+      <c r="H919" s="14"/>
     </row>
     <row r="920">
       <c r="B920" s="13"/>
-      <c r="H920" s="12"/>
+      <c r="H920" s="14"/>
     </row>
     <row r="921">
       <c r="B921" s="13"/>
-      <c r="H921" s="12"/>
+      <c r="H921" s="14"/>
     </row>
     <row r="922">
       <c r="B922" s="13"/>
-      <c r="H922" s="12"/>
+      <c r="H922" s="14"/>
     </row>
     <row r="923">
       <c r="B923" s="13"/>
-      <c r="H923" s="12"/>
+      <c r="H923" s="14"/>
     </row>
     <row r="924">
       <c r="B924" s="13"/>
-      <c r="H924" s="12"/>
+      <c r="H924" s="14"/>
     </row>
     <row r="925">
       <c r="B925" s="13"/>
-      <c r="H925" s="12"/>
+      <c r="H925" s="14"/>
     </row>
     <row r="926">
       <c r="B926" s="13"/>
-      <c r="H926" s="12"/>
+      <c r="H926" s="14"/>
     </row>
     <row r="927">
       <c r="B927" s="13"/>
-      <c r="H927" s="12"/>
+      <c r="H927" s="14"/>
     </row>
     <row r="928">
       <c r="B928" s="13"/>
-      <c r="H928" s="12"/>
+      <c r="H928" s="14"/>
     </row>
     <row r="929">
       <c r="B929" s="13"/>
-      <c r="H929" s="12"/>
+      <c r="H929" s="14"/>
     </row>
     <row r="930">
       <c r="B930" s="13"/>
-      <c r="H930" s="12"/>
+      <c r="H930" s="14"/>
     </row>
     <row r="931">
       <c r="B931" s="13"/>
-      <c r="H931" s="12"/>
+      <c r="H931" s="14"/>
     </row>
     <row r="932">
       <c r="B932" s="13"/>
-      <c r="H932" s="12"/>
+      <c r="H932" s="14"/>
     </row>
     <row r="933">
       <c r="B933" s="13"/>
-      <c r="H933" s="12"/>
+      <c r="H933" s="14"/>
     </row>
     <row r="934">
       <c r="B934" s="13"/>
-      <c r="H934" s="12"/>
+      <c r="H934" s="14"/>
     </row>
     <row r="935">
       <c r="B935" s="13"/>
-      <c r="H935" s="12"/>
+      <c r="H935" s="14"/>
     </row>
     <row r="936">
       <c r="B936" s="13"/>
-      <c r="H936" s="12"/>
+      <c r="H936" s="14"/>
     </row>
     <row r="937">
       <c r="B937" s="13"/>
-      <c r="H937" s="12"/>
+      <c r="H937" s="14"/>
     </row>
     <row r="938">
       <c r="B938" s="13"/>
-      <c r="H938" s="12"/>
+      <c r="H938" s="14"/>
     </row>
     <row r="939">
       <c r="B939" s="13"/>
-      <c r="H939" s="12"/>
+      <c r="H939" s="14"/>
     </row>
     <row r="940">
       <c r="B940" s="13"/>
-      <c r="H940" s="12"/>
+      <c r="H940" s="14"/>
     </row>
     <row r="941">
       <c r="B941" s="13"/>
-      <c r="H941" s="12"/>
+      <c r="H941" s="14"/>
     </row>
     <row r="942">
       <c r="B942" s="13"/>
-      <c r="H942" s="12"/>
+      <c r="H942" s="14"/>
     </row>
     <row r="943">
       <c r="B943" s="13"/>
-      <c r="H943" s="12"/>
+      <c r="H943" s="14"/>
     </row>
     <row r="944">
       <c r="B944" s="13"/>
-      <c r="H944" s="12"/>
+      <c r="H944" s="14"/>
     </row>
     <row r="945">
       <c r="B945" s="13"/>
-      <c r="H945" s="12"/>
+      <c r="H945" s="14"/>
     </row>
     <row r="946">
       <c r="B946" s="13"/>
-      <c r="H946" s="12"/>
+      <c r="H946" s="14"/>
     </row>
     <row r="947">
       <c r="B947" s="13"/>
-      <c r="H947" s="12"/>
+      <c r="H947" s="14"/>
     </row>
     <row r="948">
       <c r="B948" s="13"/>
-      <c r="H948" s="12"/>
+      <c r="H948" s="14"/>
     </row>
     <row r="949">
       <c r="B949" s="13"/>
-      <c r="H949" s="12"/>
+      <c r="H949" s="14"/>
     </row>
     <row r="950">
       <c r="B950" s="13"/>
-      <c r="H950" s="12"/>
+      <c r="H950" s="14"/>
     </row>
     <row r="951">
       <c r="B951" s="13"/>
-      <c r="H951" s="12"/>
+      <c r="H951" s="14"/>
     </row>
     <row r="952">
       <c r="B952" s="13"/>
-      <c r="H952" s="12"/>
+      <c r="H952" s="14"/>
     </row>
     <row r="953">
       <c r="B953" s="13"/>
-      <c r="H953" s="12"/>
+      <c r="H953" s="14"/>
     </row>
     <row r="954">
       <c r="B954" s="13"/>
-      <c r="H954" s="12"/>
+      <c r="H954" s="14"/>
     </row>
     <row r="955">
       <c r="B955" s="13"/>
-      <c r="H955" s="12"/>
+      <c r="H955" s="14"/>
     </row>
     <row r="956">
       <c r="B956" s="13"/>
-      <c r="H956" s="12"/>
+      <c r="H956" s="14"/>
     </row>
     <row r="957">
       <c r="B957" s="13"/>
-      <c r="H957" s="12"/>
+      <c r="H957" s="14"/>
     </row>
     <row r="958">
       <c r="B958" s="13"/>
-      <c r="H958" s="12"/>
+      <c r="H958" s="14"/>
     </row>
     <row r="959">
       <c r="B959" s="13"/>
-      <c r="H959" s="12"/>
+      <c r="H959" s="14"/>
     </row>
     <row r="960">
       <c r="B960" s="13"/>
-      <c r="H960" s="12"/>
+      <c r="H960" s="14"/>
     </row>
     <row r="961">
       <c r="B961" s="13"/>
-      <c r="H961" s="12"/>
+      <c r="H961" s="14"/>
     </row>
     <row r="962">
       <c r="B962" s="13"/>
-      <c r="H962" s="12"/>
+      <c r="H962" s="14"/>
     </row>
     <row r="963">
       <c r="B963" s="13"/>
-      <c r="H963" s="12"/>
+      <c r="H963" s="14"/>
     </row>
     <row r="964">
       <c r="B964" s="13"/>
-      <c r="H964" s="12"/>
+      <c r="H964" s="14"/>
     </row>
     <row r="965">
       <c r="B965" s="13"/>
-      <c r="H965" s="12"/>
+      <c r="H965" s="14"/>
     </row>
     <row r="966">
       <c r="B966" s="13"/>
-      <c r="H966" s="12"/>
+      <c r="H966" s="14"/>
     </row>
     <row r="967">
       <c r="B967" s="13"/>
-      <c r="H967" s="12"/>
+      <c r="H967" s="14"/>
     </row>
     <row r="968">
       <c r="B968" s="13"/>
-      <c r="H968" s="12"/>
+      <c r="H968" s="14"/>
     </row>
     <row r="969">
       <c r="B969" s="13"/>
-      <c r="H969" s="12"/>
+      <c r="H969" s="14"/>
     </row>
     <row r="970">
       <c r="B970" s="13"/>
-      <c r="H970" s="12"/>
+      <c r="H970" s="14"/>
     </row>
     <row r="971">
       <c r="B971" s="13"/>
-      <c r="H971" s="12"/>
+      <c r="H971" s="14"/>
     </row>
     <row r="972">
       <c r="B972" s="13"/>
-      <c r="H972" s="12"/>
+      <c r="H972" s="14"/>
     </row>
     <row r="973">
       <c r="B973" s="13"/>
-      <c r="H973" s="12"/>
+      <c r="H973" s="14"/>
     </row>
     <row r="974">
       <c r="B974" s="13"/>
-      <c r="H974" s="12"/>
+      <c r="H974" s="14"/>
     </row>
     <row r="975">
       <c r="B975" s="13"/>
-      <c r="H975" s="12"/>
+      <c r="H975" s="14"/>
     </row>
     <row r="976">
       <c r="B976" s="13"/>
-      <c r="H976" s="12"/>
+      <c r="H976" s="14"/>
     </row>
     <row r="977">
       <c r="B977" s="13"/>
-      <c r="H977" s="12"/>
+      <c r="H977" s="14"/>
     </row>
     <row r="978">
       <c r="B978" s="13"/>
-      <c r="H978" s="12"/>
+      <c r="H978" s="14"/>
     </row>
     <row r="979">
       <c r="B979" s="13"/>
-      <c r="H979" s="12"/>
+      <c r="H979" s="14"/>
     </row>
     <row r="980">
       <c r="B980" s="13"/>
-      <c r="H980" s="12"/>
+      <c r="H980" s="14"/>
     </row>
     <row r="981">
       <c r="B981" s="13"/>
-      <c r="H981" s="12"/>
+      <c r="H981" s="14"/>
     </row>
     <row r="982">
       <c r="B982" s="13"/>
-      <c r="H982" s="12"/>
+      <c r="H982" s="14"/>
     </row>
     <row r="983">
       <c r="B983" s="13"/>
-      <c r="H983" s="12"/>
+      <c r="H983" s="14"/>
     </row>
     <row r="984">
       <c r="B984" s="13"/>
-      <c r="H984" s="12"/>
+      <c r="H984" s="14"/>
     </row>
     <row r="985">
       <c r="B985" s="13"/>
-      <c r="H985" s="12"/>
+      <c r="H985" s="14"/>
     </row>
     <row r="986">
       <c r="B986" s="13"/>
-      <c r="H986" s="12"/>
+      <c r="H986" s="14"/>
     </row>
     <row r="987">
       <c r="B987" s="13"/>
-      <c r="H987" s="12"/>
+      <c r="H987" s="14"/>
     </row>
     <row r="988">
       <c r="B988" s="13"/>
-      <c r="H988" s="12"/>
+      <c r="H988" s="14"/>
     </row>
     <row r="989">
       <c r="B989" s="13"/>
-      <c r="H989" s="12"/>
+      <c r="H989" s="14"/>
     </row>
     <row r="990">
       <c r="B990" s="13"/>
-      <c r="H990" s="12"/>
+      <c r="H990" s="14"/>
     </row>
     <row r="991">
       <c r="B991" s="13"/>
-      <c r="H991" s="12"/>
+      <c r="H991" s="14"/>
     </row>
     <row r="992">
       <c r="B992" s="13"/>
-      <c r="H992" s="12"/>
+      <c r="H992" s="14"/>
     </row>
     <row r="993">
       <c r="B993" s="13"/>
-      <c r="H993" s="12"/>
+      <c r="H993" s="14"/>
     </row>
     <row r="994">
       <c r="B994" s="13"/>
-      <c r="H994" s="12"/>
+      <c r="H994" s="14"/>
     </row>
     <row r="995">
       <c r="B995" s="13"/>
-      <c r="H995" s="12"/>
+      <c r="H995" s="14"/>
     </row>
     <row r="996">
       <c r="B996" s="13"/>
-      <c r="H996" s="12"/>
+      <c r="H996" s="14"/>
     </row>
     <row r="997">
       <c r="B997" s="13"/>
-      <c r="H997" s="12"/>
+      <c r="H997" s="14"/>
     </row>
     <row r="998">
       <c r="B998" s="13"/>
-      <c r="H998" s="12"/>
+      <c r="H998" s="14"/>
     </row>
     <row r="999">
       <c r="B999" s="13"/>
-      <c r="H999" s="12"/>
+      <c r="H999" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
